--- a/2-latiral-1.xlsx
+++ b/2-latiral-1.xlsx
@@ -370,7 +370,7 @@
   <dimension ref="A1:J300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,10 +383,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -415,10 +415,10 @@
         <v>1.020263671875</v>
       </c>
       <c r="C2">
+        <v>0.289306640625</v>
+      </c>
+      <c r="D2">
         <v>-0.203125</v>
-      </c>
-      <c r="D2">
-        <v>0.289306640625</v>
       </c>
       <c r="E2">
         <v>-4.421875</v>
@@ -447,10 +447,10 @@
         <v>1.019287109375</v>
       </c>
       <c r="C3">
+        <v>0.294189453125</v>
+      </c>
+      <c r="D3">
         <v>-0.199951171875</v>
-      </c>
-      <c r="D3">
-        <v>0.294189453125</v>
       </c>
       <c r="E3">
         <v>-4.328125</v>
@@ -479,10 +479,10 @@
         <v>1.019287109375</v>
       </c>
       <c r="C4">
+        <v>0.294189453125</v>
+      </c>
+      <c r="D4">
         <v>-0.199951171875</v>
-      </c>
-      <c r="D4">
-        <v>0.294189453125</v>
       </c>
       <c r="E4">
         <v>-4.328125</v>
@@ -511,10 +511,10 @@
         <v>1.0263671875</v>
       </c>
       <c r="C5">
+        <v>0.287841796875</v>
+      </c>
+      <c r="D5">
         <v>-0.195556640625</v>
-      </c>
-      <c r="D5">
-        <v>0.287841796875</v>
       </c>
       <c r="E5">
         <v>-4.703125</v>
@@ -543,10 +543,10 @@
         <v>1.018798828125</v>
       </c>
       <c r="C6">
+        <v>0.29931640625</v>
+      </c>
+      <c r="D6">
         <v>-0.1962890625</v>
-      </c>
-      <c r="D6">
-        <v>0.29931640625</v>
       </c>
       <c r="E6">
         <v>-1.6484375</v>
@@ -575,10 +575,10 @@
         <v>1.0185546875</v>
       </c>
       <c r="C7">
+        <v>0.29833984375</v>
+      </c>
+      <c r="D7">
         <v>-0.19580078125</v>
-      </c>
-      <c r="D7">
-        <v>0.29833984375</v>
       </c>
       <c r="E7">
         <v>-1.84375</v>
@@ -607,10 +607,10 @@
         <v>1.0263671875</v>
       </c>
       <c r="C8">
+        <v>0.29248046875</v>
+      </c>
+      <c r="D8">
         <v>-0.20068359375</v>
-      </c>
-      <c r="D8">
-        <v>0.29248046875</v>
       </c>
       <c r="E8">
         <v>-1.6328125</v>
@@ -639,10 +639,10 @@
         <v>1.02001953125</v>
       </c>
       <c r="C9">
+        <v>0.342529296875</v>
+      </c>
+      <c r="D9">
         <v>-0.198486328125</v>
-      </c>
-      <c r="D9">
-        <v>0.342529296875</v>
       </c>
       <c r="E9">
         <v>-4.0390625</v>
@@ -671,10 +671,10 @@
         <v>1.026611328125</v>
       </c>
       <c r="C10">
+        <v>0.341064453125</v>
+      </c>
+      <c r="D10">
         <v>-0.1962890625</v>
-      </c>
-      <c r="D10">
-        <v>0.341064453125</v>
       </c>
       <c r="E10">
         <v>-4.0703125</v>
@@ -703,10 +703,10 @@
         <v>1.030029296875</v>
       </c>
       <c r="C11">
+        <v>0.342529296875</v>
+      </c>
+      <c r="D11">
         <v>-0.20263671875</v>
-      </c>
-      <c r="D11">
-        <v>0.342529296875</v>
       </c>
       <c r="E11">
         <v>-3.171875</v>
@@ -735,10 +735,10 @@
         <v>1.028564453125</v>
       </c>
       <c r="C12">
+        <v>0.34130859375</v>
+      </c>
+      <c r="D12">
         <v>-0.203369140625</v>
-      </c>
-      <c r="D12">
-        <v>0.34130859375</v>
       </c>
       <c r="E12">
         <v>-3.2109375</v>
@@ -767,10 +767,10 @@
         <v>1.0263671875</v>
       </c>
       <c r="C13">
+        <v>0.3271484375</v>
+      </c>
+      <c r="D13">
         <v>-0.21337890625</v>
-      </c>
-      <c r="D13">
-        <v>0.3271484375</v>
       </c>
       <c r="E13">
         <v>-5.28125</v>
@@ -799,10 +799,10 @@
         <v>1.029052734375</v>
       </c>
       <c r="C14">
+        <v>0.332763671875</v>
+      </c>
+      <c r="D14">
         <v>-0.170654296875</v>
-      </c>
-      <c r="D14">
-        <v>0.332763671875</v>
       </c>
       <c r="E14">
         <v>-8.5390625</v>
@@ -831,10 +831,10 @@
         <v>1.02294921875</v>
       </c>
       <c r="C15">
+        <v>0.338623046875</v>
+      </c>
+      <c r="D15">
         <v>-0.21484375</v>
-      </c>
-      <c r="D15">
-        <v>0.338623046875</v>
       </c>
       <c r="E15">
         <v>-10.4375</v>
@@ -863,10 +863,10 @@
         <v>1.010498046875</v>
       </c>
       <c r="C16">
+        <v>0.326171875</v>
+      </c>
+      <c r="D16">
         <v>-0.198974609375</v>
-      </c>
-      <c r="D16">
-        <v>0.326171875</v>
       </c>
       <c r="E16">
         <v>-8.0859375</v>
@@ -895,10 +895,10 @@
         <v>1.010498046875</v>
       </c>
       <c r="C17">
+        <v>0.33544921875</v>
+      </c>
+      <c r="D17">
         <v>-0.202392578125</v>
-      </c>
-      <c r="D17">
-        <v>0.33544921875</v>
       </c>
       <c r="E17">
         <v>-6.421875</v>
@@ -927,10 +927,10 @@
         <v>1.023681640625</v>
       </c>
       <c r="C18">
+        <v>0.3330078125</v>
+      </c>
+      <c r="D18">
         <v>-0.16015625</v>
-      </c>
-      <c r="D18">
-        <v>0.3330078125</v>
       </c>
       <c r="E18">
         <v>-5.2890625</v>
@@ -959,10 +959,10 @@
         <v>1.024658203125</v>
       </c>
       <c r="C19">
+        <v>0.31884765625</v>
+      </c>
+      <c r="D19">
         <v>-0.21826171875</v>
-      </c>
-      <c r="D19">
-        <v>0.31884765625</v>
       </c>
       <c r="E19">
         <v>-8.21875</v>
@@ -991,10 +991,10 @@
         <v>1.025634765625</v>
       </c>
       <c r="C20">
+        <v>0.32373046875</v>
+      </c>
+      <c r="D20">
         <v>-0.213623046875</v>
-      </c>
-      <c r="D20">
-        <v>0.32373046875</v>
       </c>
       <c r="E20">
         <v>-7.046875</v>
@@ -1023,10 +1023,10 @@
         <v>1.02734375</v>
       </c>
       <c r="C21">
+        <v>0.328125</v>
+      </c>
+      <c r="D21">
         <v>-0.17041015625</v>
-      </c>
-      <c r="D21">
-        <v>0.328125</v>
       </c>
       <c r="E21">
         <v>-8.359375</v>
@@ -1055,10 +1055,10 @@
         <v>1.025390625</v>
       </c>
       <c r="C22">
+        <v>0.32421875</v>
+      </c>
+      <c r="D22">
         <v>-0.176513671875</v>
-      </c>
-      <c r="D22">
-        <v>0.32421875</v>
       </c>
       <c r="E22">
         <v>-1.859375</v>
@@ -1087,10 +1087,10 @@
         <v>1.009033203125</v>
       </c>
       <c r="C23">
+        <v>0.3369140625</v>
+      </c>
+      <c r="D23">
         <v>-0.18603515625</v>
-      </c>
-      <c r="D23">
-        <v>0.3369140625</v>
       </c>
       <c r="E23">
         <v>-2.28125</v>
@@ -1119,10 +1119,10 @@
         <v>1.014892578125</v>
       </c>
       <c r="C24">
+        <v>0.283935546875</v>
+      </c>
+      <c r="D24">
         <v>-0.2646484375</v>
-      </c>
-      <c r="D24">
-        <v>0.283935546875</v>
       </c>
       <c r="E24">
         <v>2.0625</v>
@@ -1151,10 +1151,10 @@
         <v>1.0078125</v>
       </c>
       <c r="C25">
+        <v>0.28271484375</v>
+      </c>
+      <c r="D25">
         <v>-0.260498046875</v>
-      </c>
-      <c r="D25">
-        <v>0.28271484375</v>
       </c>
       <c r="E25">
         <v>4.96875</v>
@@ -1183,10 +1183,10 @@
         <v>1.023681640625</v>
       </c>
       <c r="C26">
+        <v>0.329345703125</v>
+      </c>
+      <c r="D26">
         <v>-0.267578125</v>
-      </c>
-      <c r="D26">
-        <v>0.329345703125</v>
       </c>
       <c r="E26">
         <v>6.078125</v>
@@ -1215,10 +1215,10 @@
         <v>0.9248046875</v>
       </c>
       <c r="C27">
+        <v>0.24267578125</v>
+      </c>
+      <c r="D27">
         <v>-0.265380859375</v>
-      </c>
-      <c r="D27">
-        <v>0.24267578125</v>
       </c>
       <c r="E27">
         <v>6.9453125</v>
@@ -1247,10 +1247,10 @@
         <v>0.962158203125</v>
       </c>
       <c r="C28">
+        <v>0.314697265625</v>
+      </c>
+      <c r="D28">
         <v>-0.258056640625</v>
-      </c>
-      <c r="D28">
-        <v>0.314697265625</v>
       </c>
       <c r="E28">
         <v>11.921875</v>
@@ -1279,10 +1279,10 @@
         <v>1.024658203125</v>
       </c>
       <c r="C29">
+        <v>0.273681640625</v>
+      </c>
+      <c r="D29">
         <v>-0.10546875</v>
-      </c>
-      <c r="D29">
-        <v>0.273681640625</v>
       </c>
       <c r="E29">
         <v>25.3046875</v>
@@ -1311,10 +1311,10 @@
         <v>1.0693359375</v>
       </c>
       <c r="C30">
+        <v>0.262451171875</v>
+      </c>
+      <c r="D30">
         <v>-0.12744140625</v>
-      </c>
-      <c r="D30">
-        <v>0.262451171875</v>
       </c>
       <c r="E30">
         <v>40.5390625</v>
@@ -1343,10 +1343,10 @@
         <v>0.97900390625</v>
       </c>
       <c r="C31">
+        <v>0.257080078125</v>
+      </c>
+      <c r="D31">
         <v>-0.1240234375</v>
-      </c>
-      <c r="D31">
-        <v>0.257080078125</v>
       </c>
       <c r="E31">
         <v>47.1875</v>
@@ -1375,10 +1375,10 @@
         <v>1.000244140625</v>
       </c>
       <c r="C32">
+        <v>0.26025390625</v>
+      </c>
+      <c r="D32">
         <v>-0.1220703125</v>
-      </c>
-      <c r="D32">
-        <v>0.26025390625</v>
       </c>
       <c r="E32">
         <v>46.65625</v>
@@ -1407,10 +1407,10 @@
         <v>0.96533203125</v>
       </c>
       <c r="C33">
+        <v>0.276123046875</v>
+      </c>
+      <c r="D33">
         <v>-0.21533203125</v>
-      </c>
-      <c r="D33">
-        <v>0.276123046875</v>
       </c>
       <c r="E33">
         <v>38.328125</v>
@@ -1439,10 +1439,10 @@
         <v>0.922119140625</v>
       </c>
       <c r="C34">
+        <v>0.171875</v>
+      </c>
+      <c r="D34">
         <v>-0.16455078125</v>
-      </c>
-      <c r="D34">
-        <v>0.171875</v>
       </c>
       <c r="E34">
         <v>32.4609375</v>
@@ -1471,10 +1471,10 @@
         <v>0.864013671875</v>
       </c>
       <c r="C35">
+        <v>0.18798828125</v>
+      </c>
+      <c r="D35">
         <v>-0.251708984375</v>
-      </c>
-      <c r="D35">
-        <v>0.18798828125</v>
       </c>
       <c r="E35">
         <v>5.34375</v>
@@ -1503,10 +1503,10 @@
         <v>0.788818359375</v>
       </c>
       <c r="C36">
+        <v>0.25439453125</v>
+      </c>
+      <c r="D36">
         <v>-0.137451171875</v>
-      </c>
-      <c r="D36">
-        <v>0.25439453125</v>
       </c>
       <c r="E36">
         <v>15.921875</v>
@@ -1535,10 +1535,10 @@
         <v>0.94970703125</v>
       </c>
       <c r="C37">
+        <v>-2.1484375E-2</v>
+      </c>
+      <c r="D37">
         <v>-0.146240234375</v>
-      </c>
-      <c r="D37">
-        <v>-2.1484375E-2</v>
       </c>
       <c r="E37">
         <v>3.015625</v>
@@ -1567,10 +1567,10 @@
         <v>0.7900390625</v>
       </c>
       <c r="C38">
+        <v>0.147705078125</v>
+      </c>
+      <c r="D38">
         <v>-0.133056640625</v>
-      </c>
-      <c r="D38">
-        <v>0.147705078125</v>
       </c>
       <c r="E38">
         <v>19.03125</v>
@@ -1599,10 +1599,10 @@
         <v>0.739990234375</v>
       </c>
       <c r="C39">
+        <v>0.10791015625</v>
+      </c>
+      <c r="D39">
         <v>-0.125</v>
-      </c>
-      <c r="D39">
-        <v>0.10791015625</v>
       </c>
       <c r="E39">
         <v>25.125</v>
@@ -1631,10 +1631,10 @@
         <v>0.80078125</v>
       </c>
       <c r="C40">
+        <v>0.145263671875</v>
+      </c>
+      <c r="D40">
         <v>-0.147705078125</v>
-      </c>
-      <c r="D40">
-        <v>0.145263671875</v>
       </c>
       <c r="E40">
         <v>27.8984375</v>
@@ -1663,10 +1663,10 @@
         <v>0.7802734375</v>
       </c>
       <c r="C41">
+        <v>4.541015625E-2</v>
+      </c>
+      <c r="D41">
         <v>-0.104736328125</v>
-      </c>
-      <c r="D41">
-        <v>4.541015625E-2</v>
       </c>
       <c r="E41">
         <v>52.75</v>
@@ -1695,10 +1695,10 @@
         <v>0.93798828125</v>
       </c>
       <c r="C42">
+        <v>0.18115234375</v>
+      </c>
+      <c r="D42">
         <v>-0.23876953125</v>
-      </c>
-      <c r="D42">
-        <v>0.18115234375</v>
       </c>
       <c r="E42">
         <v>3.0078125</v>
@@ -1727,10 +1727,10 @@
         <v>0.816650390625</v>
       </c>
       <c r="C43">
+        <v>9.47265625E-2</v>
+      </c>
+      <c r="D43">
         <v>-0.1875</v>
-      </c>
-      <c r="D43">
-        <v>9.47265625E-2</v>
       </c>
       <c r="E43">
         <v>32.2421875</v>
@@ -1759,10 +1759,10 @@
         <v>0.678466796875</v>
       </c>
       <c r="C44">
+        <v>0.120849609375</v>
+      </c>
+      <c r="D44">
         <v>-0.177001953125</v>
-      </c>
-      <c r="D44">
-        <v>0.120849609375</v>
       </c>
       <c r="E44">
         <v>-40.734375</v>
@@ -1791,10 +1791,10 @@
         <v>0.697021484375</v>
       </c>
       <c r="C45">
+        <v>0.146728515625</v>
+      </c>
+      <c r="D45">
         <v>-0.2001953125</v>
-      </c>
-      <c r="D45">
-        <v>0.146728515625</v>
       </c>
       <c r="E45">
         <v>5.46875E-2</v>
@@ -1823,10 +1823,10 @@
         <v>0.61181640625</v>
       </c>
       <c r="C46">
+        <v>0.229248046875</v>
+      </c>
+      <c r="D46">
         <v>-8.8134765625E-2</v>
-      </c>
-      <c r="D46">
-        <v>0.229248046875</v>
       </c>
       <c r="E46">
         <v>-20.859375</v>
@@ -1855,10 +1855,10 @@
         <v>0.158203125</v>
       </c>
       <c r="C47">
+        <v>0.313720703125</v>
+      </c>
+      <c r="D47">
         <v>3.5888671875E-2</v>
-      </c>
-      <c r="D47">
-        <v>0.313720703125</v>
       </c>
       <c r="E47">
         <v>3.7421875</v>
@@ -1887,10 +1887,10 @@
         <v>0.66748046875</v>
       </c>
       <c r="C48">
+        <v>0.3828125</v>
+      </c>
+      <c r="D48">
         <v>-1.953125E-3</v>
-      </c>
-      <c r="D48">
-        <v>0.3828125</v>
       </c>
       <c r="E48">
         <v>127.6171875</v>
@@ -1919,10 +1919,10 @@
         <v>2.913818359375</v>
       </c>
       <c r="C49">
+        <v>1.61669921875</v>
+      </c>
+      <c r="D49">
         <v>3.3623046875</v>
-      </c>
-      <c r="D49">
-        <v>1.61669921875</v>
       </c>
       <c r="E49">
         <v>-13.2578125</v>
@@ -1951,10 +1951,10 @@
         <v>1.607421875</v>
       </c>
       <c r="C50">
+        <v>1.866943359375</v>
+      </c>
+      <c r="D50">
         <v>1.2802734375</v>
-      </c>
-      <c r="D50">
-        <v>1.866943359375</v>
       </c>
       <c r="E50">
         <v>38.390625</v>
@@ -1983,10 +1983,10 @@
         <v>2.0751953125E-2</v>
       </c>
       <c r="C51">
+        <v>1.06298828125</v>
+      </c>
+      <c r="D51">
         <v>-0.245361328125</v>
-      </c>
-      <c r="D51">
-        <v>1.06298828125</v>
       </c>
       <c r="E51">
         <v>-6</v>
@@ -2015,10 +2015,10 @@
         <v>0.280517578125</v>
       </c>
       <c r="C52">
+        <v>0.810546875</v>
+      </c>
+      <c r="D52">
         <v>0.368408203125</v>
-      </c>
-      <c r="D52">
-        <v>0.810546875</v>
       </c>
       <c r="E52">
         <v>-111.6875</v>
@@ -2047,10 +2047,10 @@
         <v>-5.2734375E-2</v>
       </c>
       <c r="C53">
+        <v>0.474609375</v>
+      </c>
+      <c r="D53">
         <v>0.4716796875</v>
-      </c>
-      <c r="D53">
-        <v>0.474609375</v>
       </c>
       <c r="E53">
         <v>-127.8203125</v>
@@ -2079,10 +2079,10 @@
         <v>-0.49560546875</v>
       </c>
       <c r="C54">
+        <v>0.23681640625</v>
+      </c>
+      <c r="D54">
         <v>0.478759765625</v>
-      </c>
-      <c r="D54">
-        <v>0.23681640625</v>
       </c>
       <c r="E54">
         <v>-28.59375</v>
@@ -2111,10 +2111,10 @@
         <v>-0.18505859375</v>
       </c>
       <c r="C55">
+        <v>0.40234375</v>
+      </c>
+      <c r="D55">
         <v>1.007568359375</v>
-      </c>
-      <c r="D55">
-        <v>0.40234375</v>
       </c>
       <c r="E55">
         <v>-69.1640625</v>
@@ -2143,10 +2143,10 @@
         <v>-0.19384765625</v>
       </c>
       <c r="C56">
+        <v>0.352783203125</v>
+      </c>
+      <c r="D56">
         <v>1.459228515625</v>
-      </c>
-      <c r="D56">
-        <v>0.352783203125</v>
       </c>
       <c r="E56">
         <v>-43.2421875</v>
@@ -2175,10 +2175,10 @@
         <v>-0.4072265625</v>
       </c>
       <c r="C57">
+        <v>0.4052734375</v>
+      </c>
+      <c r="D57">
         <v>1.019287109375</v>
-      </c>
-      <c r="D57">
-        <v>0.4052734375</v>
       </c>
       <c r="E57">
         <v>-38.234375</v>
@@ -2207,10 +2207,10 @@
         <v>-0.266845703125</v>
       </c>
       <c r="C58">
+        <v>0.594482421875</v>
+      </c>
+      <c r="D58">
         <v>0.990966796875</v>
-      </c>
-      <c r="D58">
-        <v>0.594482421875</v>
       </c>
       <c r="E58">
         <v>-82.4765625</v>
@@ -2239,10 +2239,10 @@
         <v>-0.150146484375</v>
       </c>
       <c r="C59">
+        <v>0.30322265625</v>
+      </c>
+      <c r="D59">
         <v>0.731201171875</v>
-      </c>
-      <c r="D59">
-        <v>0.30322265625</v>
       </c>
       <c r="E59">
         <v>4.609375</v>
@@ -2271,10 +2271,10 @@
         <v>-9.326171875E-2</v>
       </c>
       <c r="C60">
+        <v>0.457763671875</v>
+      </c>
+      <c r="D60">
         <v>1.027099609375</v>
-      </c>
-      <c r="D60">
-        <v>0.457763671875</v>
       </c>
       <c r="E60">
         <v>-14.390625</v>
@@ -2303,10 +2303,10 @@
         <v>-2.5634765625E-2</v>
       </c>
       <c r="C61">
+        <v>0.347412109375</v>
+      </c>
+      <c r="D61">
         <v>0.918701171875</v>
-      </c>
-      <c r="D61">
-        <v>0.347412109375</v>
       </c>
       <c r="E61">
         <v>6.9921875</v>
@@ -2335,10 +2335,10 @@
         <v>4.98046875E-2</v>
       </c>
       <c r="C62">
+        <v>0.4189453125</v>
+      </c>
+      <c r="D62">
         <v>0.8662109375</v>
-      </c>
-      <c r="D62">
-        <v>0.4189453125</v>
       </c>
       <c r="E62">
         <v>7.3984375</v>
@@ -2367,10 +2367,10 @@
         <v>0.119873046875</v>
       </c>
       <c r="C63">
+        <v>0.43408203125</v>
+      </c>
+      <c r="D63">
         <v>0.895751953125</v>
-      </c>
-      <c r="D63">
-        <v>0.43408203125</v>
       </c>
       <c r="E63">
         <v>-9.359375</v>
@@ -2399,10 +2399,10 @@
         <v>9.3994140625E-2</v>
       </c>
       <c r="C64">
+        <v>0.410400390625</v>
+      </c>
+      <c r="D64">
         <v>0.951904296875</v>
-      </c>
-      <c r="D64">
-        <v>0.410400390625</v>
       </c>
       <c r="E64">
         <v>-23.875</v>
@@ -2431,10 +2431,10 @@
         <v>4.638671875E-2</v>
       </c>
       <c r="C65">
+        <v>0.356201171875</v>
+      </c>
+      <c r="D65">
         <v>0.8828125</v>
-      </c>
-      <c r="D65">
-        <v>0.356201171875</v>
       </c>
       <c r="E65">
         <v>-35.765625</v>
@@ -2463,10 +2463,10 @@
         <v>7.8125E-2</v>
       </c>
       <c r="C66">
+        <v>0.46240234375</v>
+      </c>
+      <c r="D66">
         <v>0.841796875</v>
-      </c>
-      <c r="D66">
-        <v>0.46240234375</v>
       </c>
       <c r="E66">
         <v>-48.0703125</v>
@@ -2495,10 +2495,10 @@
         <v>6.9091796875E-2</v>
       </c>
       <c r="C67">
+        <v>0.2900390625</v>
+      </c>
+      <c r="D67">
         <v>0.926025390625</v>
-      </c>
-      <c r="D67">
-        <v>0.2900390625</v>
       </c>
       <c r="E67">
         <v>-42.7578125</v>
@@ -2527,10 +2527,10 @@
         <v>0.142822265625</v>
       </c>
       <c r="C68">
+        <v>0.25244140625</v>
+      </c>
+      <c r="D68">
         <v>1.02001953125</v>
-      </c>
-      <c r="D68">
-        <v>0.25244140625</v>
       </c>
       <c r="E68">
         <v>-33.6484375</v>
@@ -2559,10 +2559,10 @@
         <v>-4.8828125E-3</v>
       </c>
       <c r="C69">
+        <v>0.26611328125</v>
+      </c>
+      <c r="D69">
         <v>1.007080078125</v>
-      </c>
-      <c r="D69">
-        <v>0.26611328125</v>
       </c>
       <c r="E69">
         <v>-30.0625</v>
@@ -2591,10 +2591,10 @@
         <v>6.4697265625E-2</v>
       </c>
       <c r="C70">
+        <v>0.272705078125</v>
+      </c>
+      <c r="D70">
         <v>0.928466796875</v>
-      </c>
-      <c r="D70">
-        <v>0.272705078125</v>
       </c>
       <c r="E70">
         <v>-24.15625</v>
@@ -2623,10 +2623,10 @@
         <v>-4.8828125E-4</v>
       </c>
       <c r="C71">
+        <v>0.212158203125</v>
+      </c>
+      <c r="D71">
         <v>1.0078125</v>
-      </c>
-      <c r="D71">
-        <v>0.212158203125</v>
       </c>
       <c r="E71">
         <v>-23.8046875</v>
@@ -2655,10 +2655,10 @@
         <v>-2.63671875E-2</v>
       </c>
       <c r="C72">
+        <v>0.163818359375</v>
+      </c>
+      <c r="D72">
         <v>1.0009765625</v>
-      </c>
-      <c r="D72">
-        <v>0.163818359375</v>
       </c>
       <c r="E72">
         <v>-15.8125</v>
@@ -2687,10 +2687,10 @@
         <v>-7.32421875E-4</v>
       </c>
       <c r="C73">
+        <v>0.21240234375</v>
+      </c>
+      <c r="D73">
         <v>1.0205078125</v>
-      </c>
-      <c r="D73">
-        <v>0.21240234375</v>
       </c>
       <c r="E73">
         <v>-11.671875</v>
@@ -2719,10 +2719,10 @@
         <v>8.30078125E-2</v>
       </c>
       <c r="C74">
+        <v>0.10302734375</v>
+      </c>
+      <c r="D74">
         <v>1.0234375</v>
-      </c>
-      <c r="D74">
-        <v>0.10302734375</v>
       </c>
       <c r="E74">
         <v>-7.234375</v>
@@ -2751,10 +2751,10 @@
         <v>9.033203125E-2</v>
       </c>
       <c r="C75">
+        <v>0.111328125</v>
+      </c>
+      <c r="D75">
         <v>1.009033203125</v>
-      </c>
-      <c r="D75">
-        <v>0.111328125</v>
       </c>
       <c r="E75">
         <v>-4.0390625</v>
@@ -2783,10 +2783,10 @@
         <v>7.373046875E-2</v>
       </c>
       <c r="C76">
+        <v>0.19384765625</v>
+      </c>
+      <c r="D76">
         <v>0.984619140625</v>
-      </c>
-      <c r="D76">
-        <v>0.19384765625</v>
       </c>
       <c r="E76">
         <v>-7.609375</v>
@@ -2815,10 +2815,10 @@
         <v>8.740234375E-2</v>
       </c>
       <c r="C77">
+        <v>0.111083984375</v>
+      </c>
+      <c r="D77">
         <v>1.00048828125</v>
-      </c>
-      <c r="D77">
-        <v>0.111083984375</v>
       </c>
       <c r="E77">
         <v>0.5078125</v>
@@ -2847,10 +2847,10 @@
         <v>4.39453125E-2</v>
       </c>
       <c r="C78">
+        <v>0.1142578125</v>
+      </c>
+      <c r="D78">
         <v>1.01708984375</v>
-      </c>
-      <c r="D78">
-        <v>0.1142578125</v>
       </c>
       <c r="E78">
         <v>-2.6015625</v>
@@ -2879,10 +2879,10 @@
         <v>8.69140625E-2</v>
       </c>
       <c r="C79">
+        <v>9.716796875E-2</v>
+      </c>
+      <c r="D79">
         <v>1.01953125</v>
-      </c>
-      <c r="D79">
-        <v>9.716796875E-2</v>
       </c>
       <c r="E79">
         <v>3.6953125</v>
@@ -2911,10 +2911,10 @@
         <v>4.2724609375E-2</v>
       </c>
       <c r="C80">
+        <v>0.15234375</v>
+      </c>
+      <c r="D80">
         <v>1.0224609375</v>
-      </c>
-      <c r="D80">
-        <v>0.15234375</v>
       </c>
       <c r="E80">
         <v>7.8515625</v>
@@ -2943,10 +2943,10 @@
         <v>5.4443359375E-2</v>
       </c>
       <c r="C81">
+        <v>0.1025390625</v>
+      </c>
+      <c r="D81">
         <v>1.0029296875</v>
-      </c>
-      <c r="D81">
-        <v>0.1025390625</v>
       </c>
       <c r="E81">
         <v>12.75</v>
@@ -2975,10 +2975,10 @@
         <v>8.251953125E-2</v>
       </c>
       <c r="C82">
+        <v>0.16259765625</v>
+      </c>
+      <c r="D82">
         <v>1</v>
-      </c>
-      <c r="D82">
-        <v>0.16259765625</v>
       </c>
       <c r="E82">
         <v>15.8671875</v>
@@ -3007,10 +3007,10 @@
         <v>8.10546875E-2</v>
       </c>
       <c r="C83">
+        <v>0.184814453125</v>
+      </c>
+      <c r="D83">
         <v>1.006103515625</v>
-      </c>
-      <c r="D83">
-        <v>0.184814453125</v>
       </c>
       <c r="E83">
         <v>16.6484375</v>
@@ -3039,10 +3039,10 @@
         <v>8.642578125E-2</v>
       </c>
       <c r="C84">
+        <v>0.271240234375</v>
+      </c>
+      <c r="D84">
         <v>0.93017578125</v>
-      </c>
-      <c r="D84">
-        <v>0.271240234375</v>
       </c>
       <c r="E84">
         <v>14.8359375</v>
@@ -3071,10 +3071,10 @@
         <v>6.8115234375E-2</v>
       </c>
       <c r="C85">
+        <v>0.2255859375</v>
+      </c>
+      <c r="D85">
         <v>0.92236328125</v>
-      </c>
-      <c r="D85">
-        <v>0.2255859375</v>
       </c>
       <c r="E85">
         <v>12.6171875</v>
@@ -3103,10 +3103,10 @@
         <v>-5.126953125E-3</v>
       </c>
       <c r="C86">
+        <v>0.313720703125</v>
+      </c>
+      <c r="D86">
         <v>0.92626953125</v>
-      </c>
-      <c r="D86">
-        <v>0.313720703125</v>
       </c>
       <c r="E86">
         <v>8.796875</v>
@@ -3135,10 +3135,10 @@
         <v>6.787109375E-2</v>
       </c>
       <c r="C87">
+        <v>0.224365234375</v>
+      </c>
+      <c r="D87">
         <v>0.931884765625</v>
-      </c>
-      <c r="D87">
-        <v>0.224365234375</v>
       </c>
       <c r="E87">
         <v>5.4375</v>
@@ -3167,10 +3167,10 @@
         <v>-4.8828125E-4</v>
       </c>
       <c r="C88">
+        <v>0.2392578125</v>
+      </c>
+      <c r="D88">
         <v>0.93505859375</v>
-      </c>
-      <c r="D88">
-        <v>0.2392578125</v>
       </c>
       <c r="E88">
         <v>3.7265625</v>
@@ -3199,10 +3199,10 @@
         <v>-4.638671875E-3</v>
       </c>
       <c r="C89">
+        <v>0.336181640625</v>
+      </c>
+      <c r="D89">
         <v>0.913330078125</v>
-      </c>
-      <c r="D89">
-        <v>0.336181640625</v>
       </c>
       <c r="E89">
         <v>1.46875</v>
@@ -3231,10 +3231,10 @@
         <v>7.03125E-2</v>
       </c>
       <c r="C90">
+        <v>0.330078125</v>
+      </c>
+      <c r="D90">
         <v>0.915283203125</v>
-      </c>
-      <c r="D90">
-        <v>0.330078125</v>
       </c>
       <c r="E90">
         <v>-0.625</v>
@@ -3263,10 +3263,10 @@
         <v>7.1533203125E-2</v>
       </c>
       <c r="C91">
+        <v>0.314453125</v>
+      </c>
+      <c r="D91">
         <v>0.919921875</v>
-      </c>
-      <c r="D91">
-        <v>0.314453125</v>
       </c>
       <c r="E91">
         <v>2.34375E-2</v>
@@ -3295,10 +3295,10 @@
         <v>6.3720703125E-2</v>
       </c>
       <c r="C92">
+        <v>0.320068359375</v>
+      </c>
+      <c r="D92">
         <v>0.929931640625</v>
-      </c>
-      <c r="D92">
-        <v>0.320068359375</v>
       </c>
       <c r="E92">
         <v>-2.9609375</v>
@@ -3327,10 +3327,10 @@
         <v>-3.173828125E-3</v>
       </c>
       <c r="C93">
+        <v>0.317138671875</v>
+      </c>
+      <c r="D93">
         <v>0.927734375</v>
-      </c>
-      <c r="D93">
-        <v>0.317138671875</v>
       </c>
       <c r="E93">
         <v>-3.5625</v>
@@ -3359,10 +3359,10 @@
         <v>6.396484375E-2</v>
       </c>
       <c r="C94">
+        <v>0.247802734375</v>
+      </c>
+      <c r="D94">
         <v>0.926025390625</v>
-      </c>
-      <c r="D94">
-        <v>0.247802734375</v>
       </c>
       <c r="E94">
         <v>-3.7578125</v>
@@ -3391,10 +3391,10 @@
         <v>-1.953125E-3</v>
       </c>
       <c r="C95">
+        <v>0.23388671875</v>
+      </c>
+      <c r="D95">
         <v>0.934814453125</v>
-      </c>
-      <c r="D95">
-        <v>0.23388671875</v>
       </c>
       <c r="E95">
         <v>-4.546875</v>
@@ -3423,10 +3423,10 @@
         <v>6.6650390625E-2</v>
       </c>
       <c r="C96">
+        <v>0.233642578125</v>
+      </c>
+      <c r="D96">
         <v>0.92431640625</v>
-      </c>
-      <c r="D96">
-        <v>0.233642578125</v>
       </c>
       <c r="E96">
         <v>-5.2109375</v>
@@ -3455,10 +3455,10 @@
         <v>6.8115234375E-2</v>
       </c>
       <c r="C97">
+        <v>0.242919921875</v>
+      </c>
+      <c r="D97">
         <v>1.00439453125</v>
-      </c>
-      <c r="D97">
-        <v>0.242919921875</v>
       </c>
       <c r="E97">
         <v>-15.3046875</v>
@@ -3487,10 +3487,10 @@
         <v>6.689453125E-2</v>
       </c>
       <c r="C98">
+        <v>0.27978515625</v>
+      </c>
+      <c r="D98">
         <v>0.92626953125</v>
-      </c>
-      <c r="D98">
-        <v>0.27978515625</v>
       </c>
       <c r="E98">
         <v>-8.296875</v>
@@ -3519,10 +3519,10 @@
         <v>7.177734375E-2</v>
       </c>
       <c r="C99">
+        <v>0.279296875</v>
+      </c>
+      <c r="D99">
         <v>0.936279296875</v>
-      </c>
-      <c r="D99">
-        <v>0.279296875</v>
       </c>
       <c r="E99">
         <v>-1.328125</v>
@@ -3551,10 +3551,10 @@
         <v>7.3974609375E-2</v>
       </c>
       <c r="C100">
+        <v>0.229736328125</v>
+      </c>
+      <c r="D100">
         <v>1.00927734375</v>
-      </c>
-      <c r="D100">
-        <v>0.229736328125</v>
       </c>
       <c r="E100">
         <v>-4.8515625</v>
@@ -3583,10 +3583,10 @@
         <v>8.642578125E-2</v>
       </c>
       <c r="C101">
+        <v>0.2216796875</v>
+      </c>
+      <c r="D101">
         <v>0.930419921875</v>
-      </c>
-      <c r="D101">
-        <v>0.2216796875</v>
       </c>
       <c r="E101">
         <v>-12.3984375</v>
@@ -3615,10 +3615,10 @@
         <v>6.9091796875E-2</v>
       </c>
       <c r="C102">
+        <v>0.276611328125</v>
+      </c>
+      <c r="D102">
         <v>0.92919921875</v>
-      </c>
-      <c r="D102">
-        <v>0.276611328125</v>
       </c>
       <c r="E102">
         <v>-3.7421875</v>
@@ -3647,10 +3647,10 @@
         <v>8.0810546875E-2</v>
       </c>
       <c r="C103">
+        <v>0.26416015625</v>
+      </c>
+      <c r="D103">
         <v>0.93310546875</v>
-      </c>
-      <c r="D103">
-        <v>0.26416015625</v>
       </c>
       <c r="E103">
         <v>0.6015625</v>
@@ -3679,10 +3679,10 @@
         <v>8.3740234375E-2</v>
       </c>
       <c r="C104">
+        <v>0.26806640625</v>
+      </c>
+      <c r="D104">
         <v>1.007080078125</v>
-      </c>
-      <c r="D104">
-        <v>0.26806640625</v>
       </c>
       <c r="E104">
         <v>-3.8125</v>
@@ -3711,10 +3711,10 @@
         <v>7.9833984375E-2</v>
       </c>
       <c r="C105">
+        <v>0.2802734375</v>
+      </c>
+      <c r="D105">
         <v>0.936279296875</v>
-      </c>
-      <c r="D105">
-        <v>0.2802734375</v>
       </c>
       <c r="E105">
         <v>-4.859375</v>
@@ -3743,10 +3743,10 @@
         <v>8.49609375E-2</v>
       </c>
       <c r="C106">
+        <v>0.2685546875</v>
+      </c>
+      <c r="D106">
         <v>0.92529296875</v>
-      </c>
-      <c r="D106">
-        <v>0.2685546875</v>
       </c>
       <c r="E106">
         <v>-2.203125</v>
@@ -3775,10 +3775,10 @@
         <v>4.0771484375E-2</v>
       </c>
       <c r="C107">
+        <v>0.18701171875</v>
+      </c>
+      <c r="D107">
         <v>1.005126953125</v>
-      </c>
-      <c r="D107">
-        <v>0.18701171875</v>
       </c>
       <c r="E107">
         <v>0.2109375</v>
@@ -3807,10 +3807,10 @@
         <v>3.9794921875E-2</v>
       </c>
       <c r="C108">
+        <v>0.25537109375</v>
+      </c>
+      <c r="D108">
         <v>0.936767578125</v>
-      </c>
-      <c r="D108">
-        <v>0.25537109375</v>
       </c>
       <c r="E108">
         <v>-2.0703125</v>
@@ -3839,10 +3839,10 @@
         <v>4.296875E-2</v>
       </c>
       <c r="C109">
+        <v>0.2607421875</v>
+      </c>
+      <c r="D109">
         <v>1.004638671875</v>
-      </c>
-      <c r="D109">
-        <v>0.2607421875</v>
       </c>
       <c r="E109">
         <v>0.9296875</v>
@@ -3871,10 +3871,10 @@
         <v>3.1494140625E-2</v>
       </c>
       <c r="C110">
+        <v>0.260009765625</v>
+      </c>
+      <c r="D110">
         <v>1.00927734375</v>
-      </c>
-      <c r="D110">
-        <v>0.260009765625</v>
       </c>
       <c r="E110">
         <v>4.15625</v>
@@ -3903,10 +3903,10 @@
         <v>4.0771484375E-2</v>
       </c>
       <c r="C111">
+        <v>0.258056640625</v>
+      </c>
+      <c r="D111">
         <v>0.9296875</v>
-      </c>
-      <c r="D111">
-        <v>0.258056640625</v>
       </c>
       <c r="E111">
         <v>2.2109375</v>
@@ -3935,10 +3935,10 @@
         <v>9.1796875E-2</v>
       </c>
       <c r="C112">
+        <v>0.2666015625</v>
+      </c>
+      <c r="D112">
         <v>0.932373046875</v>
-      </c>
-      <c r="D112">
-        <v>0.2666015625</v>
       </c>
       <c r="E112">
         <v>4.625</v>
@@ -3967,10 +3967,10 @@
         <v>9.3505859375E-2</v>
       </c>
       <c r="C113">
+        <v>0.26611328125</v>
+      </c>
+      <c r="D113">
         <v>0.933837890625</v>
-      </c>
-      <c r="D113">
-        <v>0.26611328125</v>
       </c>
       <c r="E113">
         <v>2.125</v>
@@ -3999,10 +3999,10 @@
         <v>4.150390625E-2</v>
       </c>
       <c r="C114">
+        <v>0.266845703125</v>
+      </c>
+      <c r="D114">
         <v>0.9365234375</v>
-      </c>
-      <c r="D114">
-        <v>0.266845703125</v>
       </c>
       <c r="E114">
         <v>2.609375</v>
@@ -4031,10 +4031,10 @@
         <v>4.248046875E-2</v>
       </c>
       <c r="C115">
+        <v>0.27392578125</v>
+      </c>
+      <c r="D115">
         <v>0.92529296875</v>
-      </c>
-      <c r="D115">
-        <v>0.27392578125</v>
       </c>
       <c r="E115">
         <v>-0.171875</v>
@@ -4063,10 +4063,10 @@
         <v>3.4912109375E-2</v>
       </c>
       <c r="C116">
+        <v>0.27490234375</v>
+      </c>
+      <c r="D116">
         <v>0.9306640625</v>
-      </c>
-      <c r="D116">
-        <v>0.27490234375</v>
       </c>
       <c r="E116">
         <v>2.21875</v>
@@ -4095,10 +4095,10 @@
         <v>3.61328125E-2</v>
       </c>
       <c r="C117">
+        <v>0.239990234375</v>
+      </c>
+      <c r="D117">
         <v>0.9306640625</v>
-      </c>
-      <c r="D117">
-        <v>0.239990234375</v>
       </c>
       <c r="E117">
         <v>0.9765625</v>
@@ -4127,10 +4127,10 @@
         <v>9.0576171875E-2</v>
       </c>
       <c r="C118">
+        <v>0.22509765625</v>
+      </c>
+      <c r="D118">
         <v>0.929931640625</v>
-      </c>
-      <c r="D118">
-        <v>0.22509765625</v>
       </c>
       <c r="E118">
         <v>-0.5078125</v>
@@ -4159,10 +4159,10 @@
         <v>9.0576171875E-2</v>
       </c>
       <c r="C119">
+        <v>0.22900390625</v>
+      </c>
+      <c r="D119">
         <v>0.931640625</v>
-      </c>
-      <c r="D119">
-        <v>0.22900390625</v>
       </c>
       <c r="E119">
         <v>-0.4375</v>
@@ -4191,10 +4191,10 @@
         <v>9.130859375E-2</v>
       </c>
       <c r="C120">
+        <v>0.236083984375</v>
+      </c>
+      <c r="D120">
         <v>0.935546875</v>
-      </c>
-      <c r="D120">
-        <v>0.236083984375</v>
       </c>
       <c r="E120">
         <v>-2.1328125</v>
@@ -4223,10 +4223,10 @@
         <v>9.228515625E-2</v>
       </c>
       <c r="C121">
+        <v>0.232666015625</v>
+      </c>
+      <c r="D121">
         <v>0.927490234375</v>
-      </c>
-      <c r="D121">
-        <v>0.232666015625</v>
       </c>
       <c r="E121">
         <v>0.1875</v>
@@ -4255,10 +4255,10 @@
         <v>8.837890625E-2</v>
       </c>
       <c r="C122">
+        <v>0.23291015625</v>
+      </c>
+      <c r="D122">
         <v>0.9306640625</v>
-      </c>
-      <c r="D122">
-        <v>0.23291015625</v>
       </c>
       <c r="E122">
         <v>0.7265625</v>
@@ -4287,10 +4287,10 @@
         <v>3.515625E-2</v>
       </c>
       <c r="C123">
+        <v>0.226806640625</v>
+      </c>
+      <c r="D123">
         <v>0.929931640625</v>
-      </c>
-      <c r="D123">
-        <v>0.226806640625</v>
       </c>
       <c r="E123">
         <v>-2.984375</v>
@@ -4319,10 +4319,10 @@
         <v>9.033203125E-2</v>
       </c>
       <c r="C124">
+        <v>0.23095703125</v>
+      </c>
+      <c r="D124">
         <v>0.92919921875</v>
-      </c>
-      <c r="D124">
-        <v>0.23095703125</v>
       </c>
       <c r="E124">
         <v>-1.96875</v>
@@ -4351,10 +4351,10 @@
         <v>9.1796875E-2</v>
       </c>
       <c r="C125">
+        <v>0.23095703125</v>
+      </c>
+      <c r="D125">
         <v>0.93603515625</v>
-      </c>
-      <c r="D125">
-        <v>0.23095703125</v>
       </c>
       <c r="E125">
         <v>9.375E-2</v>
@@ -4383,10 +4383,10 @@
         <v>9.3505859375E-2</v>
       </c>
       <c r="C126">
+        <v>0.228515625</v>
+      </c>
+      <c r="D126">
         <v>0.93408203125</v>
-      </c>
-      <c r="D126">
-        <v>0.228515625</v>
       </c>
       <c r="E126">
         <v>-0.953125</v>
@@ -4415,10 +4415,10 @@
         <v>8.8623046875E-2</v>
       </c>
       <c r="C127">
+        <v>0.236083984375</v>
+      </c>
+      <c r="D127">
         <v>0.933349609375</v>
-      </c>
-      <c r="D127">
-        <v>0.236083984375</v>
       </c>
       <c r="E127">
         <v>-0.5859375</v>
@@ -4447,10 +4447,10 @@
         <v>8.6181640625E-2</v>
       </c>
       <c r="C128">
+        <v>0.240234375</v>
+      </c>
+      <c r="D128">
         <v>0.925537109375</v>
-      </c>
-      <c r="D128">
-        <v>0.240234375</v>
       </c>
       <c r="E128">
         <v>-0.4765625</v>
@@ -4479,10 +4479,10 @@
         <v>8.8623046875E-2</v>
       </c>
       <c r="C129">
+        <v>0.237060546875</v>
+      </c>
+      <c r="D129">
         <v>0.932373046875</v>
-      </c>
-      <c r="D129">
-        <v>0.237060546875</v>
       </c>
       <c r="E129">
         <v>0.9453125</v>
@@ -4511,10 +4511,10 @@
         <v>7.763671875E-2</v>
       </c>
       <c r="C130">
+        <v>0.23876953125</v>
+      </c>
+      <c r="D130">
         <v>0.9287109375</v>
-      </c>
-      <c r="D130">
-        <v>0.23876953125</v>
       </c>
       <c r="E130">
         <v>-0.3125</v>
@@ -4543,10 +4543,10 @@
         <v>8.7158203125E-2</v>
       </c>
       <c r="C131">
+        <v>0.232421875</v>
+      </c>
+      <c r="D131">
         <v>0.929443359375</v>
-      </c>
-      <c r="D131">
-        <v>0.232421875</v>
       </c>
       <c r="E131">
         <v>-0.6171875</v>
@@ -4575,10 +4575,10 @@
         <v>8.4228515625E-2</v>
       </c>
       <c r="C132">
+        <v>0.245849609375</v>
+      </c>
+      <c r="D132">
         <v>0.9296875</v>
-      </c>
-      <c r="D132">
-        <v>0.245849609375</v>
       </c>
       <c r="E132">
         <v>-0.6640625</v>
@@ -4607,10 +4607,10 @@
         <v>8.642578125E-2</v>
       </c>
       <c r="C133">
+        <v>0.318359375</v>
+      </c>
+      <c r="D133">
         <v>0.93017578125</v>
-      </c>
-      <c r="D133">
-        <v>0.318359375</v>
       </c>
       <c r="E133">
         <v>7.8125E-2</v>
@@ -4639,10 +4639,10 @@
         <v>8.4228515625E-2</v>
       </c>
       <c r="C134">
+        <v>0.313720703125</v>
+      </c>
+      <c r="D134">
         <v>0.929931640625</v>
-      </c>
-      <c r="D134">
-        <v>0.313720703125</v>
       </c>
       <c r="E134">
         <v>-2.2890625</v>
@@ -4671,10 +4671,10 @@
         <v>8.154296875E-2</v>
       </c>
       <c r="C135">
+        <v>0.244384765625</v>
+      </c>
+      <c r="D135">
         <v>0.93115234375</v>
-      </c>
-      <c r="D135">
-        <v>0.244384765625</v>
       </c>
       <c r="E135">
         <v>-2.1796875</v>
@@ -4703,10 +4703,10 @@
         <v>8.349609375E-2</v>
       </c>
       <c r="C136">
+        <v>0.237548828125</v>
+      </c>
+      <c r="D136">
         <v>0.9365234375</v>
-      </c>
-      <c r="D136">
-        <v>0.237548828125</v>
       </c>
       <c r="E136">
         <v>0.28125</v>
@@ -4735,10 +4735,10 @@
         <v>8.8623046875E-2</v>
       </c>
       <c r="C137">
+        <v>0.229736328125</v>
+      </c>
+      <c r="D137">
         <v>0.9228515625</v>
-      </c>
-      <c r="D137">
-        <v>0.229736328125</v>
       </c>
       <c r="E137">
         <v>-2.9609375</v>
@@ -4767,10 +4767,10 @@
         <v>7.9833984375E-2</v>
       </c>
       <c r="C138">
+        <v>0.314453125</v>
+      </c>
+      <c r="D138">
         <v>0.931396484375</v>
-      </c>
-      <c r="D138">
-        <v>0.314453125</v>
       </c>
       <c r="E138">
         <v>-2.875</v>
@@ -4799,10 +4799,10 @@
         <v>7.71484375E-2</v>
       </c>
       <c r="C139">
+        <v>0.321533203125</v>
+      </c>
+      <c r="D139">
         <v>0.9326171875</v>
-      </c>
-      <c r="D139">
-        <v>0.321533203125</v>
       </c>
       <c r="E139">
         <v>-2.8046875</v>
@@ -4831,10 +4831,10 @@
         <v>8.642578125E-2</v>
       </c>
       <c r="C140">
+        <v>0.2314453125</v>
+      </c>
+      <c r="D140">
         <v>0.919189453125</v>
-      </c>
-      <c r="D140">
-        <v>0.2314453125</v>
       </c>
       <c r="E140">
         <v>-1.0703125</v>
@@ -4863,10 +4863,10 @@
         <v>7.3486328125E-2</v>
       </c>
       <c r="C141">
+        <v>0.3232421875</v>
+      </c>
+      <c r="D141">
         <v>0.928466796875</v>
-      </c>
-      <c r="D141">
-        <v>0.3232421875</v>
       </c>
       <c r="E141">
         <v>-1.3828125</v>
@@ -4895,10 +4895,10 @@
         <v>7.2998046875E-2</v>
       </c>
       <c r="C142">
+        <v>0.31396484375</v>
+      </c>
+      <c r="D142">
         <v>0.931640625</v>
-      </c>
-      <c r="D142">
-        <v>0.31396484375</v>
       </c>
       <c r="E142">
         <v>-2.46875</v>
@@ -4927,10 +4927,10 @@
         <v>8.056640625E-2</v>
       </c>
       <c r="C143">
+        <v>0.314208984375</v>
+      </c>
+      <c r="D143">
         <v>0.931884765625</v>
-      </c>
-      <c r="D143">
-        <v>0.314208984375</v>
       </c>
       <c r="E143">
         <v>-2.65625</v>
@@ -4959,10 +4959,10 @@
         <v>7.7880859375E-2</v>
       </c>
       <c r="C144">
+        <v>0.31884765625</v>
+      </c>
+      <c r="D144">
         <v>0.92724609375</v>
-      </c>
-      <c r="D144">
-        <v>0.31884765625</v>
       </c>
       <c r="E144">
         <v>-2.2421875</v>
@@ -4991,10 +4991,10 @@
         <v>7.9833984375E-2</v>
       </c>
       <c r="C145">
+        <v>0.316162109375</v>
+      </c>
+      <c r="D145">
         <v>0.927978515625</v>
-      </c>
-      <c r="D145">
-        <v>0.316162109375</v>
       </c>
       <c r="E145">
         <v>-2.2109375</v>
@@ -5023,10 +5023,10 @@
         <v>8.2763671875E-2</v>
       </c>
       <c r="C146">
+        <v>0.235595703125</v>
+      </c>
+      <c r="D146">
         <v>0.925537109375</v>
-      </c>
-      <c r="D146">
-        <v>0.235595703125</v>
       </c>
       <c r="E146">
         <v>-2.765625</v>
@@ -5055,10 +5055,10 @@
         <v>7.2265625E-2</v>
       </c>
       <c r="C147">
+        <v>0.323974609375</v>
+      </c>
+      <c r="D147">
         <v>0.931884765625</v>
-      </c>
-      <c r="D147">
-        <v>0.323974609375</v>
       </c>
       <c r="E147">
         <v>-2.984375</v>
@@ -5087,10 +5087,10 @@
         <v>7.275390625E-2</v>
       </c>
       <c r="C148">
+        <v>0.314208984375</v>
+      </c>
+      <c r="D148">
         <v>0.92529296875</v>
-      </c>
-      <c r="D148">
-        <v>0.314208984375</v>
       </c>
       <c r="E148">
         <v>-2.7890625</v>
@@ -5119,10 +5119,10 @@
         <v>7.51953125E-2</v>
       </c>
       <c r="C149">
+        <v>0.248291015625</v>
+      </c>
+      <c r="D149">
         <v>0.930908203125</v>
-      </c>
-      <c r="D149">
-        <v>0.248291015625</v>
       </c>
       <c r="E149">
         <v>-1.390625</v>
@@ -5151,10 +5151,10 @@
         <v>7.177734375E-2</v>
       </c>
       <c r="C150">
+        <v>0.31591796875</v>
+      </c>
+      <c r="D150">
         <v>0.935791015625</v>
-      </c>
-      <c r="D150">
-        <v>0.31591796875</v>
       </c>
       <c r="E150">
         <v>-2.3203125</v>
@@ -5183,10 +5183,10 @@
         <v>7.421875E-2</v>
       </c>
       <c r="C151">
+        <v>0.245849609375</v>
+      </c>
+      <c r="D151">
         <v>0.92626953125</v>
-      </c>
-      <c r="D151">
-        <v>0.245849609375</v>
       </c>
       <c r="E151">
         <v>-1.1953125</v>
@@ -5215,10 +5215,10 @@
         <v>8.0078125E-2</v>
       </c>
       <c r="C152">
+        <v>0.318115234375</v>
+      </c>
+      <c r="D152">
         <v>0.92236328125</v>
-      </c>
-      <c r="D152">
-        <v>0.318115234375</v>
       </c>
       <c r="E152">
         <v>-1.3359375</v>
@@ -5247,10 +5247,10 @@
         <v>7.3486328125E-2</v>
       </c>
       <c r="C153">
+        <v>0.24658203125</v>
+      </c>
+      <c r="D153">
         <v>0.927734375</v>
-      </c>
-      <c r="D153">
-        <v>0.24658203125</v>
       </c>
       <c r="E153">
         <v>1.5625E-2</v>
@@ -5279,10 +5279,10 @@
         <v>8.0078125E-2</v>
       </c>
       <c r="C154">
+        <v>0.24951171875</v>
+      </c>
+      <c r="D154">
         <v>0.9306640625</v>
-      </c>
-      <c r="D154">
-        <v>0.24951171875</v>
       </c>
       <c r="E154">
         <v>-6.734375</v>
@@ -5311,10 +5311,10 @@
         <v>7.373046875E-2</v>
       </c>
       <c r="C155">
+        <v>0.318359375</v>
+      </c>
+      <c r="D155">
         <v>1.000244140625</v>
-      </c>
-      <c r="D155">
-        <v>0.318359375</v>
       </c>
       <c r="E155">
         <v>-5.0234375</v>
@@ -5343,10 +5343,10 @@
         <v>7.8125E-2</v>
       </c>
       <c r="C156">
+        <v>0.2373046875</v>
+      </c>
+      <c r="D156">
         <v>0.9306640625</v>
-      </c>
-      <c r="D156">
-        <v>0.2373046875</v>
       </c>
       <c r="E156">
         <v>-5.9921875</v>
@@ -5375,10 +5375,10 @@
         <v>7.763671875E-2</v>
       </c>
       <c r="C157">
+        <v>0.24755859375</v>
+      </c>
+      <c r="D157">
         <v>0.929443359375</v>
-      </c>
-      <c r="D157">
-        <v>0.24755859375</v>
       </c>
       <c r="E157">
         <v>-7.2109375</v>
@@ -5407,10 +5407,10 @@
         <v>9.3505859375E-2</v>
       </c>
       <c r="C158">
+        <v>0.23779296875</v>
+      </c>
+      <c r="D158">
         <v>0.92822265625</v>
-      </c>
-      <c r="D158">
-        <v>0.23779296875</v>
       </c>
       <c r="E158">
         <v>-20.6875</v>
@@ -5439,10 +5439,10 @@
         <v>7.9833984375E-2</v>
       </c>
       <c r="C159">
+        <v>0.2724609375</v>
+      </c>
+      <c r="D159">
         <v>0.935791015625</v>
-      </c>
-      <c r="D159">
-        <v>0.2724609375</v>
       </c>
       <c r="E159">
         <v>-18.875</v>
@@ -5471,10 +5471,10 @@
         <v>7.275390625E-2</v>
       </c>
       <c r="C160">
+        <v>0.25830078125</v>
+      </c>
+      <c r="D160">
         <v>0.935546875</v>
-      </c>
-      <c r="D160">
-        <v>0.25830078125</v>
       </c>
       <c r="E160">
         <v>-14.8671875</v>
@@ -5503,10 +5503,10 @@
         <v>7.763671875E-2</v>
       </c>
       <c r="C161">
+        <v>0.2587890625</v>
+      </c>
+      <c r="D161">
         <v>0.935302734375</v>
-      </c>
-      <c r="D161">
-        <v>0.2587890625</v>
       </c>
       <c r="E161">
         <v>-10.828125</v>
@@ -5535,10 +5535,10 @@
         <v>7.080078125E-2</v>
       </c>
       <c r="C162">
+        <v>0.2509765625</v>
+      </c>
+      <c r="D162">
         <v>0.9345703125</v>
-      </c>
-      <c r="D162">
-        <v>0.2509765625</v>
       </c>
       <c r="E162">
         <v>-4.296875</v>
@@ -5567,10 +5567,10 @@
         <v>7.8369140625E-2</v>
       </c>
       <c r="C163">
+        <v>0.25244140625</v>
+      </c>
+      <c r="D163">
         <v>0.934814453125</v>
-      </c>
-      <c r="D163">
-        <v>0.25244140625</v>
       </c>
       <c r="E163">
         <v>-1.4609375</v>
@@ -5599,10 +5599,10 @@
         <v>8.0322265625E-2</v>
       </c>
       <c r="C164">
+        <v>0.18212890625</v>
+      </c>
+      <c r="D164">
         <v>1.004150390625</v>
-      </c>
-      <c r="D164">
-        <v>0.18212890625</v>
       </c>
       <c r="E164">
         <v>4.6875E-2</v>
@@ -5631,10 +5631,10 @@
         <v>8.2763671875E-2</v>
       </c>
       <c r="C165">
+        <v>0.17529296875</v>
+      </c>
+      <c r="D165">
         <v>1.002685546875</v>
-      </c>
-      <c r="D165">
-        <v>0.17529296875</v>
       </c>
       <c r="E165">
         <v>-0.15625</v>
@@ -5663,10 +5663,10 @@
         <v>7.763671875E-2</v>
       </c>
       <c r="C166">
+        <v>0.184814453125</v>
+      </c>
+      <c r="D166">
         <v>1.001708984375</v>
-      </c>
-      <c r="D166">
-        <v>0.184814453125</v>
       </c>
       <c r="E166">
         <v>2.1328125</v>
@@ -5695,10 +5695,10 @@
         <v>8.056640625E-2</v>
       </c>
       <c r="C167">
+        <v>0.2578125</v>
+      </c>
+      <c r="D167">
         <v>1.001220703125</v>
-      </c>
-      <c r="D167">
-        <v>0.2578125</v>
       </c>
       <c r="E167">
         <v>-0.25</v>
@@ -5727,10 +5727,10 @@
         <v>8.740234375E-2</v>
       </c>
       <c r="C168">
+        <v>0.253173828125</v>
+      </c>
+      <c r="D168">
         <v>1.00244140625</v>
-      </c>
-      <c r="D168">
-        <v>0.253173828125</v>
       </c>
       <c r="E168">
         <v>-7</v>
@@ -5759,10 +5759,10 @@
         <v>8.1787109375E-2</v>
       </c>
       <c r="C169">
+        <v>0.181396484375</v>
+      </c>
+      <c r="D169">
         <v>1.007080078125</v>
-      </c>
-      <c r="D169">
-        <v>0.181396484375</v>
       </c>
       <c r="E169">
         <v>-8.1328125</v>
@@ -5791,10 +5791,10 @@
         <v>7.275390625E-2</v>
       </c>
       <c r="C170">
+        <v>0.251708984375</v>
+      </c>
+      <c r="D170">
         <v>0.93408203125</v>
-      </c>
-      <c r="D170">
-        <v>0.251708984375</v>
       </c>
       <c r="E170">
         <v>0.6953125</v>
@@ -5823,10 +5823,10 @@
         <v>7.4462890625E-2</v>
       </c>
       <c r="C171">
+        <v>0.181884765625</v>
+      </c>
+      <c r="D171">
         <v>0.929443359375</v>
-      </c>
-      <c r="D171">
-        <v>0.181884765625</v>
       </c>
       <c r="E171">
         <v>2</v>
@@ -5855,10 +5855,10 @@
         <v>7.373046875E-2</v>
       </c>
       <c r="C172">
+        <v>0.260009765625</v>
+      </c>
+      <c r="D172">
         <v>0.936767578125</v>
-      </c>
-      <c r="D172">
-        <v>0.260009765625</v>
       </c>
       <c r="E172">
         <v>-0.1640625</v>
@@ -5887,10 +5887,10 @@
         <v>7.8369140625E-2</v>
       </c>
       <c r="C173">
+        <v>0.26220703125</v>
+      </c>
+      <c r="D173">
         <v>1.00146484375</v>
-      </c>
-      <c r="D173">
-        <v>0.26220703125</v>
       </c>
       <c r="E173">
         <v>0.46875</v>
@@ -5919,10 +5919,10 @@
         <v>7.5439453125E-2</v>
       </c>
       <c r="C174">
+        <v>0.25244140625</v>
+      </c>
+      <c r="D174">
         <v>1.004150390625</v>
-      </c>
-      <c r="D174">
-        <v>0.25244140625</v>
       </c>
       <c r="E174">
         <v>0.453125</v>
@@ -5951,10 +5951,10 @@
         <v>7.9345703125E-2</v>
       </c>
       <c r="C175">
+        <v>0.2548828125</v>
+      </c>
+      <c r="D175">
         <v>1.001953125</v>
-      </c>
-      <c r="D175">
-        <v>0.2548828125</v>
       </c>
       <c r="E175">
         <v>0.8984375</v>
@@ -5983,10 +5983,10 @@
         <v>8.10546875E-2</v>
       </c>
       <c r="C176">
+        <v>0.25146484375</v>
+      </c>
+      <c r="D176">
         <v>0.93408203125</v>
-      </c>
-      <c r="D176">
-        <v>0.25146484375</v>
       </c>
       <c r="E176">
         <v>-4.484375</v>
@@ -6015,10 +6015,10 @@
         <v>7.861328125E-2</v>
       </c>
       <c r="C177">
+        <v>0.176513671875</v>
+      </c>
+      <c r="D177">
         <v>1.001953125</v>
-      </c>
-      <c r="D177">
-        <v>0.176513671875</v>
       </c>
       <c r="E177">
         <v>-3.4296875</v>
@@ -6047,10 +6047,10 @@
         <v>7.421875E-2</v>
       </c>
       <c r="C178">
+        <v>0.2705078125</v>
+      </c>
+      <c r="D178">
         <v>1.005615234375</v>
-      </c>
-      <c r="D178">
-        <v>0.2705078125</v>
       </c>
       <c r="E178">
         <v>-1.546875</v>
@@ -6079,10 +6079,10 @@
         <v>8.203125E-2</v>
       </c>
       <c r="C179">
+        <v>0.254150390625</v>
+      </c>
+      <c r="D179">
         <v>0.936767578125</v>
-      </c>
-      <c r="D179">
-        <v>0.254150390625</v>
       </c>
       <c r="E179">
         <v>-4.59375</v>
@@ -6111,10 +6111,10 @@
         <v>7.373046875E-2</v>
       </c>
       <c r="C180">
+        <v>0.18603515625</v>
+      </c>
+      <c r="D180">
         <v>1.0029296875</v>
-      </c>
-      <c r="D180">
-        <v>0.18603515625</v>
       </c>
       <c r="E180">
         <v>-2.7109375</v>
@@ -6143,10 +6143,10 @@
         <v>7.03125E-2</v>
       </c>
       <c r="C181">
+        <v>0.257568359375</v>
+      </c>
+      <c r="D181">
         <v>0.93359375</v>
-      </c>
-      <c r="D181">
-        <v>0.257568359375</v>
       </c>
       <c r="E181">
         <v>-0.796875</v>
@@ -6175,10 +6175,10 @@
         <v>7.6904296875E-2</v>
       </c>
       <c r="C182">
+        <v>0.185791015625</v>
+      </c>
+      <c r="D182">
         <v>0.9345703125</v>
-      </c>
-      <c r="D182">
-        <v>0.185791015625</v>
       </c>
       <c r="E182">
         <v>0.3671875</v>
@@ -6207,10 +6207,10 @@
         <v>7.2998046875E-2</v>
       </c>
       <c r="C183">
+        <v>0.2529296875</v>
+      </c>
+      <c r="D183">
         <v>1.00244140625</v>
-      </c>
-      <c r="D183">
-        <v>0.2529296875</v>
       </c>
       <c r="E183">
         <v>-2.1796875</v>
@@ -6239,10 +6239,10 @@
         <v>7.12890625E-2</v>
       </c>
       <c r="C184">
+        <v>0.18603515625</v>
+      </c>
+      <c r="D184">
         <v>1.006103515625</v>
-      </c>
-      <c r="D184">
-        <v>0.18603515625</v>
       </c>
       <c r="E184">
         <v>-2.1171875</v>
@@ -6271,10 +6271,10 @@
         <v>7.1533203125E-2</v>
       </c>
       <c r="C185">
+        <v>0.1875</v>
+      </c>
+      <c r="D185">
         <v>0.933349609375</v>
-      </c>
-      <c r="D185">
-        <v>0.1875</v>
       </c>
       <c r="E185">
         <v>0.953125</v>
@@ -6303,10 +6303,10 @@
         <v>6.640625E-2</v>
       </c>
       <c r="C186">
+        <v>0.267333984375</v>
+      </c>
+      <c r="D186">
         <v>0.935302734375</v>
-      </c>
-      <c r="D186">
-        <v>0.267333984375</v>
       </c>
       <c r="E186">
         <v>0.203125</v>
@@ -6335,10 +6335,10 @@
         <v>6.5185546875E-2</v>
       </c>
       <c r="C187">
+        <v>0.257568359375</v>
+      </c>
+      <c r="D187">
         <v>1</v>
-      </c>
-      <c r="D187">
-        <v>0.257568359375</v>
       </c>
       <c r="E187">
         <v>-2.0078125</v>
@@ -6367,10 +6367,10 @@
         <v>7.2021484375E-2</v>
       </c>
       <c r="C188">
+        <v>0.267578125</v>
+      </c>
+      <c r="D188">
         <v>1.000244140625</v>
-      </c>
-      <c r="D188">
-        <v>0.267578125</v>
       </c>
       <c r="E188">
         <v>-1.1484375</v>
@@ -6399,10 +6399,10 @@
         <v>6.494140625E-2</v>
       </c>
       <c r="C189">
+        <v>0.250732421875</v>
+      </c>
+      <c r="D189">
         <v>0.935546875</v>
-      </c>
-      <c r="D189">
-        <v>0.250732421875</v>
       </c>
       <c r="E189">
         <v>-1.0625</v>
@@ -6431,10 +6431,10 @@
         <v>6.6650390625E-2</v>
       </c>
       <c r="C190">
+        <v>0.260986328125</v>
+      </c>
+      <c r="D190">
         <v>1.001220703125</v>
-      </c>
-      <c r="D190">
-        <v>0.260986328125</v>
       </c>
       <c r="E190">
         <v>-2.1640625</v>
@@ -6463,10 +6463,10 @@
         <v>7.4951171875E-2</v>
       </c>
       <c r="C191">
+        <v>0.25537109375</v>
+      </c>
+      <c r="D191">
         <v>0.932861328125</v>
-      </c>
-      <c r="D191">
-        <v>0.25537109375</v>
       </c>
       <c r="E191">
         <v>0.5703125</v>
@@ -6495,10 +6495,10 @@
         <v>6.73828125E-2</v>
       </c>
       <c r="C192">
+        <v>0.266845703125</v>
+      </c>
+      <c r="D192">
         <v>1.004638671875</v>
-      </c>
-      <c r="D192">
-        <v>0.266845703125</v>
       </c>
       <c r="E192">
         <v>-2.15625</v>
@@ -6527,10 +6527,10 @@
         <v>7.32421875E-2</v>
       </c>
       <c r="C193">
+        <v>0.260986328125</v>
+      </c>
+      <c r="D193">
         <v>1.00537109375</v>
-      </c>
-      <c r="D193">
-        <v>0.260986328125</v>
       </c>
       <c r="E193">
         <v>-2.4296875</v>
@@ -6559,10 +6559,10 @@
         <v>8.349609375E-2</v>
       </c>
       <c r="C194">
+        <v>0.179443359375</v>
+      </c>
+      <c r="D194">
         <v>0.929931640625</v>
-      </c>
-      <c r="D194">
-        <v>0.179443359375</v>
       </c>
       <c r="E194">
         <v>0.921875</v>
@@ -6591,10 +6591,10 @@
         <v>6.640625E-2</v>
       </c>
       <c r="C195">
+        <v>0.264892578125</v>
+      </c>
+      <c r="D195">
         <v>1.0009765625</v>
-      </c>
-      <c r="D195">
-        <v>0.264892578125</v>
       </c>
       <c r="E195">
         <v>2.0234375</v>
@@ -6623,10 +6623,10 @@
         <v>7.2998046875E-2</v>
       </c>
       <c r="C196">
+        <v>0.26220703125</v>
+      </c>
+      <c r="D196">
         <v>1.000732421875</v>
-      </c>
-      <c r="D196">
-        <v>0.26220703125</v>
       </c>
       <c r="E196">
         <v>-0.5546875</v>
@@ -6655,10 +6655,10 @@
         <v>8.056640625E-2</v>
       </c>
       <c r="C197">
+        <v>0.26513671875</v>
+      </c>
+      <c r="D197">
         <v>0.934814453125</v>
-      </c>
-      <c r="D197">
-        <v>0.26513671875</v>
       </c>
       <c r="E197">
         <v>0.4609375</v>
@@ -6687,10 +6687,10 @@
         <v>7.763671875E-2</v>
       </c>
       <c r="C198">
+        <v>0.260986328125</v>
+      </c>
+      <c r="D198">
         <v>1.001953125</v>
-      </c>
-      <c r="D198">
-        <v>0.260986328125</v>
       </c>
       <c r="E198">
         <v>7.8125E-3</v>
@@ -6719,10 +6719,10 @@
         <v>7.12890625E-2</v>
       </c>
       <c r="C199">
+        <v>0.278076171875</v>
+      </c>
+      <c r="D199">
         <v>0.933349609375</v>
-      </c>
-      <c r="D199">
-        <v>0.278076171875</v>
       </c>
       <c r="E199">
         <v>-1.515625</v>
@@ -6751,10 +6751,10 @@
         <v>7.12890625E-2</v>
       </c>
       <c r="C200">
+        <v>0.259521484375</v>
+      </c>
+      <c r="D200">
         <v>0.93359375</v>
-      </c>
-      <c r="D200">
-        <v>0.259521484375</v>
       </c>
       <c r="E200">
         <v>-2.8828125</v>
@@ -6783,10 +6783,10 @@
         <v>7.03125E-2</v>
       </c>
       <c r="C201">
+        <v>0.25830078125</v>
+      </c>
+      <c r="D201">
         <v>0.93505859375</v>
-      </c>
-      <c r="D201">
-        <v>0.25830078125</v>
       </c>
       <c r="E201">
         <v>-2.0625</v>
@@ -6815,10 +6815,10 @@
         <v>7.0556640625E-2</v>
       </c>
       <c r="C202">
+        <v>0.257080078125</v>
+      </c>
+      <c r="D202">
         <v>0.934814453125</v>
-      </c>
-      <c r="D202">
-        <v>0.257080078125</v>
       </c>
       <c r="E202">
         <v>0.7421875</v>
@@ -6847,10 +6847,10 @@
         <v>7.6171875E-2</v>
       </c>
       <c r="C203">
+        <v>0.272705078125</v>
+      </c>
+      <c r="D203">
         <v>1.001708984375</v>
-      </c>
-      <c r="D203">
-        <v>0.272705078125</v>
       </c>
       <c r="E203">
         <v>-0.859375</v>
@@ -6879,10 +6879,10 @@
         <v>7.03125E-2</v>
       </c>
       <c r="C204">
+        <v>0.27587890625</v>
+      </c>
+      <c r="D204">
         <v>0.93505859375</v>
-      </c>
-      <c r="D204">
-        <v>0.27587890625</v>
       </c>
       <c r="E204">
         <v>-2.2109375</v>
@@ -6911,10 +6911,10 @@
         <v>7.470703125E-2</v>
       </c>
       <c r="C205">
+        <v>0.265380859375</v>
+      </c>
+      <c r="D205">
         <v>1.000244140625</v>
-      </c>
-      <c r="D205">
-        <v>0.265380859375</v>
       </c>
       <c r="E205">
         <v>-2.171875</v>
@@ -6943,10 +6943,10 @@
         <v>7.0556640625E-2</v>
       </c>
       <c r="C206">
+        <v>0.269775390625</v>
+      </c>
+      <c r="D206">
         <v>0.93505859375</v>
-      </c>
-      <c r="D206">
-        <v>0.269775390625</v>
       </c>
       <c r="E206">
         <v>0.953125</v>
@@ -6975,10 +6975,10 @@
         <v>7.0556640625E-2</v>
       </c>
       <c r="C207">
+        <v>0.26806640625</v>
+      </c>
+      <c r="D207">
         <v>0.9365234375</v>
-      </c>
-      <c r="D207">
-        <v>0.26806640625</v>
       </c>
       <c r="E207">
         <v>2.6484375</v>
@@ -7007,10 +7007,10 @@
         <v>6.7626953125E-2</v>
       </c>
       <c r="C208">
+        <v>0.228759765625</v>
+      </c>
+      <c r="D208">
         <v>0.932373046875</v>
-      </c>
-      <c r="D208">
-        <v>0.228759765625</v>
       </c>
       <c r="E208">
         <v>4.484375</v>
@@ -7039,10 +7039,10 @@
         <v>7.8857421875E-2</v>
       </c>
       <c r="C209">
+        <v>0.264404296875</v>
+      </c>
+      <c r="D209">
         <v>0.927734375</v>
-      </c>
-      <c r="D209">
-        <v>0.264404296875</v>
       </c>
       <c r="E209">
         <v>3.6171875</v>
@@ -7071,10 +7071,10 @@
         <v>6.494140625E-2</v>
       </c>
       <c r="C210">
+        <v>0.2255859375</v>
+      </c>
+      <c r="D210">
         <v>1.00341796875</v>
-      </c>
-      <c r="D210">
-        <v>0.2255859375</v>
       </c>
       <c r="E210">
         <v>1.2734375</v>
@@ -7103,10 +7103,10 @@
         <v>7.763671875E-2</v>
       </c>
       <c r="C211">
+        <v>0.224853515625</v>
+      </c>
+      <c r="D211">
         <v>0.92822265625</v>
-      </c>
-      <c r="D211">
-        <v>0.224853515625</v>
       </c>
       <c r="E211">
         <v>-0.578125</v>
@@ -7135,10 +7135,10 @@
         <v>7.4462890625E-2</v>
       </c>
       <c r="C212">
+        <v>0.231689453125</v>
+      </c>
+      <c r="D212">
         <v>0.932861328125</v>
-      </c>
-      <c r="D212">
-        <v>0.231689453125</v>
       </c>
       <c r="E212">
         <v>-1.1015625</v>
@@ -7167,10 +7167,10 @@
         <v>6.73828125E-2</v>
       </c>
       <c r="C213">
+        <v>0.224609375</v>
+      </c>
+      <c r="D213">
         <v>0.932861328125</v>
-      </c>
-      <c r="D213">
-        <v>0.224609375</v>
       </c>
       <c r="E213">
         <v>-4.40625</v>
@@ -7199,10 +7199,10 @@
         <v>7.6416015625E-2</v>
       </c>
       <c r="C214">
+        <v>0.27734375</v>
+      </c>
+      <c r="D214">
         <v>0.93212890625</v>
-      </c>
-      <c r="D214">
-        <v>0.27734375</v>
       </c>
       <c r="E214">
         <v>-3.203125</v>
@@ -7231,10 +7231,10 @@
         <v>7.32421875E-2</v>
       </c>
       <c r="C215">
+        <v>0.223876953125</v>
+      </c>
+      <c r="D215">
         <v>0.93359375</v>
-      </c>
-      <c r="D215">
-        <v>0.223876953125</v>
       </c>
       <c r="E215">
         <v>-4.3671875</v>
@@ -7263,10 +7263,10 @@
         <v>-1.220703125E-3</v>
       </c>
       <c r="C216">
+        <v>0.2333984375</v>
+      </c>
+      <c r="D216">
         <v>0.92138671875</v>
-      </c>
-      <c r="D216">
-        <v>0.2333984375</v>
       </c>
       <c r="E216">
         <v>-2.90625</v>
@@ -7295,10 +7295,10 @@
         <v>6.8359375E-2</v>
       </c>
       <c r="C217">
+        <v>0.222900390625</v>
+      </c>
+      <c r="D217">
         <v>0.936767578125</v>
-      </c>
-      <c r="D217">
-        <v>0.222900390625</v>
       </c>
       <c r="E217">
         <v>-1.5</v>
@@ -7327,10 +7327,10 @@
         <v>7.03125E-2</v>
       </c>
       <c r="C218">
+        <v>0.276123046875</v>
+      </c>
+      <c r="D218">
         <v>1.003173828125</v>
-      </c>
-      <c r="D218">
-        <v>0.276123046875</v>
       </c>
       <c r="E218">
         <v>-1.6640625</v>
@@ -7359,10 +7359,10 @@
         <v>6.7138671875E-2</v>
       </c>
       <c r="C219">
+        <v>0.27978515625</v>
+      </c>
+      <c r="D219">
         <v>0.93505859375</v>
-      </c>
-      <c r="D219">
-        <v>0.27978515625</v>
       </c>
       <c r="E219">
         <v>-2.9765625</v>
@@ -7391,10 +7391,10 @@
         <v>7.2021484375E-2</v>
       </c>
       <c r="C220">
+        <v>0.218994140625</v>
+      </c>
+      <c r="D220">
         <v>0.9296875</v>
-      </c>
-      <c r="D220">
-        <v>0.218994140625</v>
       </c>
       <c r="E220">
         <v>-2.234375</v>
@@ -7423,10 +7423,10 @@
         <v>6.884765625E-2</v>
       </c>
       <c r="C221">
+        <v>0.224609375</v>
+      </c>
+      <c r="D221">
         <v>1</v>
-      </c>
-      <c r="D221">
-        <v>0.224609375</v>
       </c>
       <c r="E221">
         <v>0.6640625</v>
@@ -7455,10 +7455,10 @@
         <v>6.9580078125E-2</v>
       </c>
       <c r="C222">
+        <v>0.279541015625</v>
+      </c>
+      <c r="D222">
         <v>0.931884765625</v>
-      </c>
-      <c r="D222">
-        <v>0.279541015625</v>
       </c>
       <c r="E222">
         <v>0.296875</v>
@@ -7487,10 +7487,10 @@
         <v>6.298828125E-2</v>
       </c>
       <c r="C223">
+        <v>0.22802734375</v>
+      </c>
+      <c r="D223">
         <v>0.92919921875</v>
-      </c>
-      <c r="D223">
-        <v>0.22802734375</v>
       </c>
       <c r="E223">
         <v>-1.03125</v>
@@ -7519,10 +7519,10 @@
         <v>6.4208984375E-2</v>
       </c>
       <c r="C224">
+        <v>0.2197265625</v>
+      </c>
+      <c r="D224">
         <v>1.002197265625</v>
-      </c>
-      <c r="D224">
-        <v>0.2197265625</v>
       </c>
       <c r="E224">
         <v>-2.21875</v>
@@ -7551,10 +7551,10 @@
         <v>6.6162109375E-2</v>
       </c>
       <c r="C225">
+        <v>0.225830078125</v>
+      </c>
+      <c r="D225">
         <v>0.929443359375</v>
-      </c>
-      <c r="D225">
-        <v>0.225830078125</v>
       </c>
       <c r="E225">
         <v>-2.703125</v>
@@ -7583,10 +7583,10 @@
         <v>6.4453125E-2</v>
       </c>
       <c r="C226">
+        <v>0.226318359375</v>
+      </c>
+      <c r="D226">
         <v>0.931640625</v>
-      </c>
-      <c r="D226">
-        <v>0.226318359375</v>
       </c>
       <c r="E226">
         <v>-2.734375</v>
@@ -7615,10 +7615,10 @@
         <v>-1.46484375E-3</v>
       </c>
       <c r="C227">
+        <v>0.227783203125</v>
+      </c>
+      <c r="D227">
         <v>0.930419921875</v>
-      </c>
-      <c r="D227">
-        <v>0.227783203125</v>
       </c>
       <c r="E227">
         <v>0.640625</v>
@@ -7647,10 +7647,10 @@
         <v>7.470703125E-2</v>
       </c>
       <c r="C228">
+        <v>0.27685546875</v>
+      </c>
+      <c r="D228">
         <v>0.931884765625</v>
-      </c>
-      <c r="D228">
-        <v>0.27685546875</v>
       </c>
       <c r="E228">
         <v>0.34375</v>
@@ -7679,10 +7679,10 @@
         <v>6.34765625E-2</v>
       </c>
       <c r="C229">
+        <v>0.2294921875</v>
+      </c>
+      <c r="D229">
         <v>0.93017578125</v>
-      </c>
-      <c r="D229">
-        <v>0.2294921875</v>
       </c>
       <c r="E229">
         <v>-2.0390625</v>
@@ -7711,10 +7711,10 @@
         <v>-5.37109375E-3</v>
       </c>
       <c r="C230">
+        <v>0.227783203125</v>
+      </c>
+      <c r="D230">
         <v>1.001220703125</v>
-      </c>
-      <c r="D230">
-        <v>0.227783203125</v>
       </c>
       <c r="E230">
         <v>-0.6015625</v>
@@ -7743,10 +7743,10 @@
         <v>6.7138671875E-2</v>
       </c>
       <c r="C231">
+        <v>0.2216796875</v>
+      </c>
+      <c r="D231">
         <v>0.9326171875</v>
-      </c>
-      <c r="D231">
-        <v>0.2216796875</v>
       </c>
       <c r="E231">
         <v>0.3671875</v>
@@ -7775,10 +7775,10 @@
         <v>6.9091796875E-2</v>
       </c>
       <c r="C232">
+        <v>0.22998046875</v>
+      </c>
+      <c r="D232">
         <v>0.9287109375</v>
-      </c>
-      <c r="D232">
-        <v>0.22998046875</v>
       </c>
       <c r="E232">
         <v>-3.40625</v>
@@ -7807,10 +7807,10 @@
         <v>6.8359375E-2</v>
       </c>
       <c r="C233">
+        <v>0.2265625</v>
+      </c>
+      <c r="D233">
         <v>1</v>
-      </c>
-      <c r="D233">
-        <v>0.2265625</v>
       </c>
       <c r="E233">
         <v>-3.7421875</v>
@@ -7839,10 +7839,10 @@
         <v>7.373046875E-2</v>
       </c>
       <c r="C234">
+        <v>0.276123046875</v>
+      </c>
+      <c r="D234">
         <v>1.001953125</v>
-      </c>
-      <c r="D234">
-        <v>0.276123046875</v>
       </c>
       <c r="E234">
         <v>-12.375</v>
@@ -7871,10 +7871,10 @@
         <v>-8.544921875E-3</v>
       </c>
       <c r="C235">
+        <v>0.279052734375</v>
+      </c>
+      <c r="D235">
         <v>0.934814453125</v>
-      </c>
-      <c r="D235">
-        <v>0.279052734375</v>
       </c>
       <c r="E235">
         <v>-8.4609375</v>
@@ -7903,10 +7903,10 @@
         <v>-6.34765625E-3</v>
       </c>
       <c r="C236">
+        <v>0.267578125</v>
+      </c>
+      <c r="D236">
         <v>1</v>
-      </c>
-      <c r="D236">
-        <v>0.267578125</v>
       </c>
       <c r="E236">
         <v>-3.671875</v>
@@ -7935,10 +7935,10 @@
         <v>-9.033203125E-3</v>
       </c>
       <c r="C237">
+        <v>0.2724609375</v>
+      </c>
+      <c r="D237">
         <v>0.93017578125</v>
-      </c>
-      <c r="D237">
-        <v>0.2724609375</v>
       </c>
       <c r="E237">
         <v>-1.1875</v>
@@ -7967,10 +7967,10 @@
         <v>6.8115234375E-2</v>
       </c>
       <c r="C238">
+        <v>0.22119140625</v>
+      </c>
+      <c r="D238">
         <v>0.925048828125</v>
-      </c>
-      <c r="D238">
-        <v>0.22119140625</v>
       </c>
       <c r="E238">
         <v>-5.1640625</v>
@@ -7999,10 +7999,10 @@
         <v>-5.615234375E-3</v>
       </c>
       <c r="C239">
+        <v>0.185791015625</v>
+      </c>
+      <c r="D239">
         <v>1.00146484375</v>
-      </c>
-      <c r="D239">
-        <v>0.185791015625</v>
       </c>
       <c r="E239">
         <v>-4.25</v>
@@ -8031,10 +8031,10 @@
         <v>-4.638671875E-3</v>
       </c>
       <c r="C240">
+        <v>0.270263671875</v>
+      </c>
+      <c r="D240">
         <v>1.00048828125</v>
-      </c>
-      <c r="D240">
-        <v>0.270263671875</v>
       </c>
       <c r="E240">
         <v>2.640625</v>
@@ -8063,10 +8063,10 @@
         <v>-6.34765625E-3</v>
       </c>
       <c r="C241">
+        <v>0.27978515625</v>
+      </c>
+      <c r="D241">
         <v>0.932861328125</v>
-      </c>
-      <c r="D241">
-        <v>0.27978515625</v>
       </c>
       <c r="E241">
         <v>-2.75</v>
@@ -8095,10 +8095,10 @@
         <v>-2.9296875E-3</v>
       </c>
       <c r="C242">
+        <v>0.271240234375</v>
+      </c>
+      <c r="D242">
         <v>0.933837890625</v>
-      </c>
-      <c r="D242">
-        <v>0.271240234375</v>
       </c>
       <c r="E242">
         <v>-2.7265625</v>
@@ -8127,10 +8127,10 @@
         <v>-9.033203125E-3</v>
       </c>
       <c r="C243">
+        <v>0.26904296875</v>
+      </c>
+      <c r="D243">
         <v>0.93701171875</v>
-      </c>
-      <c r="D243">
-        <v>0.26904296875</v>
       </c>
       <c r="E243">
         <v>4.6875E-2</v>
@@ -8159,10 +8159,10 @@
         <v>-4.8828125E-3</v>
       </c>
       <c r="C244">
+        <v>0.263427734375</v>
+      </c>
+      <c r="D244">
         <v>1.001708984375</v>
-      </c>
-      <c r="D244">
-        <v>0.263427734375</v>
       </c>
       <c r="E244">
         <v>-2.328125</v>
@@ -8191,10 +8191,10 @@
         <v>-1.708984375E-3</v>
       </c>
       <c r="C245">
+        <v>0.270751953125</v>
+      </c>
+      <c r="D245">
         <v>0.931396484375</v>
-      </c>
-      <c r="D245">
-        <v>0.270751953125</v>
       </c>
       <c r="E245">
         <v>-2.6484375</v>
@@ -8223,10 +8223,10 @@
         <v>-9.765625E-3</v>
       </c>
       <c r="C246">
+        <v>0.22021484375</v>
+      </c>
+      <c r="D246">
         <v>0.93212890625</v>
-      </c>
-      <c r="D246">
-        <v>0.22021484375</v>
       </c>
       <c r="E246">
         <v>0.640625</v>
@@ -8255,10 +8255,10 @@
         <v>-9.765625E-3</v>
       </c>
       <c r="C247">
+        <v>0.274169921875</v>
+      </c>
+      <c r="D247">
         <v>0.93505859375</v>
-      </c>
-      <c r="D247">
-        <v>0.274169921875</v>
       </c>
       <c r="E247">
         <v>-0.7578125</v>
@@ -8287,10 +8287,10 @@
         <v>-7.32421875E-4</v>
       </c>
       <c r="C248">
+        <v>0.279541015625</v>
+      </c>
+      <c r="D248">
         <v>0.935546875</v>
-      </c>
-      <c r="D248">
-        <v>0.279541015625</v>
       </c>
       <c r="E248">
         <v>-2.34375</v>
@@ -8319,10 +8319,10 @@
         <v>-3.41796875E-3</v>
       </c>
       <c r="C249">
+        <v>0.2724609375</v>
+      </c>
+      <c r="D249">
         <v>0.93603515625</v>
-      </c>
-      <c r="D249">
-        <v>0.2724609375</v>
       </c>
       <c r="E249">
         <v>-2.125</v>
@@ -8351,10 +8351,10 @@
         <v>-2.9296875E-3</v>
       </c>
       <c r="C250">
+        <v>0.28076171875</v>
+      </c>
+      <c r="D250">
         <v>0.93701171875</v>
-      </c>
-      <c r="D250">
-        <v>0.28076171875</v>
       </c>
       <c r="E250">
         <v>7.8125E-2</v>
@@ -8383,10 +8383,10 @@
         <v>-6.591796875E-3</v>
       </c>
       <c r="C251">
+        <v>0.273681640625</v>
+      </c>
+      <c r="D251">
         <v>0.935546875</v>
-      </c>
-      <c r="D251">
-        <v>0.273681640625</v>
       </c>
       <c r="E251">
         <v>-2.75</v>
@@ -8415,10 +8415,10 @@
         <v>-8.7890625E-3</v>
       </c>
       <c r="C252">
+        <v>0.2734375</v>
+      </c>
+      <c r="D252">
         <v>0.934326171875</v>
-      </c>
-      <c r="D252">
-        <v>0.2734375</v>
       </c>
       <c r="E252">
         <v>0.3125</v>
@@ -8447,10 +8447,10 @@
         <v>-7.080078125E-3</v>
       </c>
       <c r="C253">
+        <v>0.220947265625</v>
+      </c>
+      <c r="D253">
         <v>0.933837890625</v>
-      </c>
-      <c r="D253">
-        <v>0.220947265625</v>
       </c>
       <c r="E253">
         <v>0.9140625</v>
@@ -8479,10 +8479,10 @@
         <v>-3.662109375E-3</v>
       </c>
       <c r="C254">
+        <v>0.278564453125</v>
+      </c>
+      <c r="D254">
         <v>0.933349609375</v>
-      </c>
-      <c r="D254">
-        <v>0.278564453125</v>
       </c>
       <c r="E254">
         <v>-2.0859375</v>
@@ -8511,10 +8511,10 @@
         <v>-7.080078125E-3</v>
       </c>
       <c r="C255">
+        <v>0.279296875</v>
+      </c>
+      <c r="D255">
         <v>0.9326171875</v>
-      </c>
-      <c r="D255">
-        <v>0.279296875</v>
       </c>
       <c r="E255">
         <v>-2.0546875</v>
@@ -8543,10 +8543,10 @@
         <v>6.2744140625E-2</v>
       </c>
       <c r="C256">
+        <v>0.27783203125</v>
+      </c>
+      <c r="D256">
         <v>0.9306640625</v>
-      </c>
-      <c r="D256">
-        <v>0.27783203125</v>
       </c>
       <c r="E256">
         <v>-0.9375</v>
@@ -8575,10 +8575,10 @@
         <v>0</v>
       </c>
       <c r="C257">
+        <v>0.22705078125</v>
+      </c>
+      <c r="D257">
         <v>0.932373046875</v>
-      </c>
-      <c r="D257">
-        <v>0.22705078125</v>
       </c>
       <c r="E257">
         <v>-2.7265625</v>
@@ -8607,10 +8607,10 @@
         <v>-4.638671875E-3</v>
       </c>
       <c r="C258">
+        <v>0.222412109375</v>
+      </c>
+      <c r="D258">
         <v>1.00048828125</v>
-      </c>
-      <c r="D258">
-        <v>0.222412109375</v>
       </c>
       <c r="E258">
         <v>-4.3828125</v>
@@ -8639,10 +8639,10 @@
         <v>-1.318359375E-2</v>
       </c>
       <c r="C259">
+        <v>0.274169921875</v>
+      </c>
+      <c r="D259">
         <v>0.930419921875</v>
-      </c>
-      <c r="D259">
-        <v>0.274169921875</v>
       </c>
       <c r="E259">
         <v>-1.34375</v>
@@ -8671,10 +8671,10 @@
         <v>-5.126953125E-3</v>
       </c>
       <c r="C260">
+        <v>0.28076171875</v>
+      </c>
+      <c r="D260">
         <v>0.935546875</v>
-      </c>
-      <c r="D260">
-        <v>0.28076171875</v>
       </c>
       <c r="E260">
         <v>-2.9921875</v>
@@ -8703,10 +8703,10 @@
         <v>-3.662109375E-3</v>
       </c>
       <c r="C261">
+        <v>0.279296875</v>
+      </c>
+      <c r="D261">
         <v>0.93603515625</v>
-      </c>
-      <c r="D261">
-        <v>0.279296875</v>
       </c>
       <c r="E261">
         <v>-1.671875</v>
@@ -8735,10 +8735,10 @@
         <v>-5.859375E-3</v>
       </c>
       <c r="C262">
+        <v>0.2744140625</v>
+      </c>
+      <c r="D262">
         <v>0.93603515625</v>
-      </c>
-      <c r="D262">
-        <v>0.2744140625</v>
       </c>
       <c r="E262">
         <v>0.1484375</v>
@@ -8767,10 +8767,10 @@
         <v>-7.32421875E-3</v>
       </c>
       <c r="C263">
+        <v>0.27978515625</v>
+      </c>
+      <c r="D263">
         <v>1.000732421875</v>
-      </c>
-      <c r="D263">
-        <v>0.27978515625</v>
       </c>
       <c r="E263">
         <v>0.6953125</v>
@@ -8799,10 +8799,10 @@
         <v>-6.34765625E-3</v>
       </c>
       <c r="C264">
+        <v>0.22265625</v>
+      </c>
+      <c r="D264">
         <v>0.931884765625</v>
-      </c>
-      <c r="D264">
-        <v>0.22265625</v>
       </c>
       <c r="E264">
         <v>8.59375E-2</v>
@@ -8831,10 +8831,10 @@
         <v>-2.685546875E-3</v>
       </c>
       <c r="C265">
+        <v>0.2236328125</v>
+      </c>
+      <c r="D265">
         <v>0.92724609375</v>
-      </c>
-      <c r="D265">
-        <v>0.2236328125</v>
       </c>
       <c r="E265">
         <v>-2.2265625</v>
@@ -8863,10 +8863,10 @@
         <v>-2.197265625E-3</v>
       </c>
       <c r="C266">
+        <v>0.224853515625</v>
+      </c>
+      <c r="D266">
         <v>0.93505859375</v>
-      </c>
-      <c r="D266">
-        <v>0.224853515625</v>
       </c>
       <c r="E266">
         <v>-2.046875</v>
@@ -8895,10 +8895,10 @@
         <v>-4.638671875E-3</v>
       </c>
       <c r="C267">
+        <v>0.222412109375</v>
+      </c>
+      <c r="D267">
         <v>0.93310546875</v>
-      </c>
-      <c r="D267">
-        <v>0.222412109375</v>
       </c>
       <c r="E267">
         <v>-2.3203125</v>
@@ -8927,10 +8927,10 @@
         <v>-2.9296875E-3</v>
       </c>
       <c r="C268">
+        <v>0.231689453125</v>
+      </c>
+      <c r="D268">
         <v>0.934814453125</v>
-      </c>
-      <c r="D268">
-        <v>0.231689453125</v>
       </c>
       <c r="E268">
         <v>-2.59375</v>
@@ -8959,10 +8959,10 @@
         <v>-6.103515625E-3</v>
       </c>
       <c r="C269">
+        <v>0.222900390625</v>
+      </c>
+      <c r="D269">
         <v>1.001220703125</v>
-      </c>
-      <c r="D269">
-        <v>0.222900390625</v>
       </c>
       <c r="E269">
         <v>-4.0234375</v>
@@ -8991,10 +8991,10 @@
         <v>-1.46484375E-3</v>
       </c>
       <c r="C270">
+        <v>0.220458984375</v>
+      </c>
+      <c r="D270">
         <v>0.936279296875</v>
-      </c>
-      <c r="D270">
-        <v>0.220458984375</v>
       </c>
       <c r="E270">
         <v>-4.34375</v>
@@ -9023,10 +9023,10 @@
         <v>-2.44140625E-4</v>
       </c>
       <c r="C271">
+        <v>0.27392578125</v>
+      </c>
+      <c r="D271">
         <v>0.9306640625</v>
-      </c>
-      <c r="D271">
-        <v>0.27392578125</v>
       </c>
       <c r="E271">
         <v>-1.6171875</v>
@@ -9055,10 +9055,10 @@
         <v>-2.44140625E-3</v>
       </c>
       <c r="C272">
+        <v>0.22265625</v>
+      </c>
+      <c r="D272">
         <v>0.925537109375</v>
-      </c>
-      <c r="D272">
-        <v>0.22265625</v>
       </c>
       <c r="E272">
         <v>-6.140625</v>
@@ -9087,10 +9087,10 @@
         <v>-4.39453125E-3</v>
       </c>
       <c r="C273">
+        <v>0.220458984375</v>
+      </c>
+      <c r="D273">
         <v>0.93603515625</v>
-      </c>
-      <c r="D273">
-        <v>0.220458984375</v>
       </c>
       <c r="E273">
         <v>-1.703125</v>
@@ -9119,10 +9119,10 @@
         <v>6.396484375E-2</v>
       </c>
       <c r="C274">
+        <v>0.276611328125</v>
+      </c>
+      <c r="D274">
         <v>1.001708984375</v>
-      </c>
-      <c r="D274">
-        <v>0.276611328125</v>
       </c>
       <c r="E274">
         <v>-2.59375</v>
@@ -9151,10 +9151,10 @@
         <v>-4.150390625E-3</v>
       </c>
       <c r="C275">
+        <v>0.2744140625</v>
+      </c>
+      <c r="D275">
         <v>0.93603515625</v>
-      </c>
-      <c r="D275">
-        <v>0.2744140625</v>
       </c>
       <c r="E275">
         <v>0.71875</v>
@@ -9183,10 +9183,10 @@
         <v>6.396484375E-2</v>
       </c>
       <c r="C276">
+        <v>0.278076171875</v>
+      </c>
+      <c r="D276">
         <v>0.93115234375</v>
-      </c>
-      <c r="D276">
-        <v>0.278076171875</v>
       </c>
       <c r="E276">
         <v>-0.171875</v>
@@ -9215,10 +9215,10 @@
         <v>-4.8828125E-3</v>
       </c>
       <c r="C277">
+        <v>0.23388671875</v>
+      </c>
+      <c r="D277">
         <v>0.934814453125</v>
-      </c>
-      <c r="D277">
-        <v>0.23388671875</v>
       </c>
       <c r="E277">
         <v>-0.5390625</v>
@@ -9247,10 +9247,10 @@
         <v>6.8115234375E-2</v>
       </c>
       <c r="C278">
+        <v>0.273193359375</v>
+      </c>
+      <c r="D278">
         <v>0.9326171875</v>
-      </c>
-      <c r="D278">
-        <v>0.273193359375</v>
       </c>
       <c r="E278">
         <v>0.5703125</v>
@@ -9279,10 +9279,10 @@
         <v>7.12890625E-2</v>
       </c>
       <c r="C279">
+        <v>0.268798828125</v>
+      </c>
+      <c r="D279">
         <v>1.00537109375</v>
-      </c>
-      <c r="D279">
-        <v>0.268798828125</v>
       </c>
       <c r="E279">
         <v>-1.109375</v>
@@ -9311,10 +9311,10 @@
         <v>7.1044921875E-2</v>
       </c>
       <c r="C280">
+        <v>0.278564453125</v>
+      </c>
+      <c r="D280">
         <v>0.93408203125</v>
-      </c>
-      <c r="D280">
-        <v>0.278564453125</v>
       </c>
       <c r="E280">
         <v>-1.1953125</v>
@@ -9343,10 +9343,10 @@
         <v>6.54296875E-2</v>
       </c>
       <c r="C281">
+        <v>0.220703125</v>
+      </c>
+      <c r="D281">
         <v>0.930419921875</v>
-      </c>
-      <c r="D281">
-        <v>0.220703125</v>
       </c>
       <c r="E281">
         <v>0.1640625</v>
@@ -9375,10 +9375,10 @@
         <v>-2.44140625E-3</v>
       </c>
       <c r="C282">
+        <v>0.2265625</v>
+      </c>
+      <c r="D282">
         <v>0.93310546875</v>
-      </c>
-      <c r="D282">
-        <v>0.2265625</v>
       </c>
       <c r="E282">
         <v>0.890625</v>
@@ -9407,10 +9407,10 @@
         <v>-7.32421875E-4</v>
       </c>
       <c r="C283">
+        <v>0.237548828125</v>
+      </c>
+      <c r="D283">
         <v>0.931396484375</v>
-      </c>
-      <c r="D283">
-        <v>0.237548828125</v>
       </c>
       <c r="E283">
         <v>-1.5625</v>
@@ -9439,10 +9439,10 @@
         <v>7.177734375E-2</v>
       </c>
       <c r="C284">
+        <v>0.258544921875</v>
+      </c>
+      <c r="D284">
         <v>0.930908203125</v>
-      </c>
-      <c r="D284">
-        <v>0.258544921875</v>
       </c>
       <c r="E284">
         <v>2.359375</v>
@@ -9471,10 +9471,10 @@
         <v>7.4462890625E-2</v>
       </c>
       <c r="C285">
+        <v>0.227294921875</v>
+      </c>
+      <c r="D285">
         <v>1.003662109375</v>
-      </c>
-      <c r="D285">
-        <v>0.227294921875</v>
       </c>
       <c r="E285">
         <v>-0.84375</v>
@@ -9503,10 +9503,10 @@
         <v>7.6904296875E-2</v>
       </c>
       <c r="C286">
+        <v>0.2314453125</v>
+      </c>
+      <c r="D286">
         <v>0.929931640625</v>
-      </c>
-      <c r="D286">
-        <v>0.2314453125</v>
       </c>
       <c r="E286">
         <v>-0.9453125</v>
@@ -9535,10 +9535,10 @@
         <v>7.32421875E-2</v>
       </c>
       <c r="C287">
+        <v>0.239501953125</v>
+      </c>
+      <c r="D287">
         <v>0.9296875</v>
-      </c>
-      <c r="D287">
-        <v>0.239501953125</v>
       </c>
       <c r="E287">
         <v>-4.21875</v>
@@ -9567,10 +9567,10 @@
         <v>7.12890625E-2</v>
       </c>
       <c r="C288">
+        <v>0.277099609375</v>
+      </c>
+      <c r="D288">
         <v>0.936767578125</v>
-      </c>
-      <c r="D288">
-        <v>0.277099609375</v>
       </c>
       <c r="E288">
         <v>-2.890625</v>
@@ -9599,10 +9599,10 @@
         <v>6.8115234375E-2</v>
       </c>
       <c r="C289">
+        <v>0.227783203125</v>
+      </c>
+      <c r="D289">
         <v>0.931640625</v>
-      </c>
-      <c r="D289">
-        <v>0.227783203125</v>
       </c>
       <c r="E289">
         <v>-0.3515625</v>
@@ -9631,10 +9631,10 @@
         <v>6.7626953125E-2</v>
       </c>
       <c r="C290">
+        <v>0.232421875</v>
+      </c>
+      <c r="D290">
         <v>0.92724609375</v>
-      </c>
-      <c r="D290">
-        <v>0.232421875</v>
       </c>
       <c r="E290">
         <v>1.21875</v>
@@ -9663,10 +9663,10 @@
         <v>7.177734375E-2</v>
       </c>
       <c r="C291">
+        <v>0.2333984375</v>
+      </c>
+      <c r="D291">
         <v>0.931640625</v>
-      </c>
-      <c r="D291">
-        <v>0.2333984375</v>
       </c>
       <c r="E291">
         <v>2.578125</v>
@@ -9695,10 +9695,10 @@
         <v>8.154296875E-2</v>
       </c>
       <c r="C292">
+        <v>0.2275390625</v>
+      </c>
+      <c r="D292">
         <v>0.92919921875</v>
-      </c>
-      <c r="D292">
-        <v>0.2275390625</v>
       </c>
       <c r="E292">
         <v>-0.21875</v>
@@ -9727,10 +9727,10 @@
         <v>6.4453125E-2</v>
       </c>
       <c r="C293">
+        <v>0.23974609375</v>
+      </c>
+      <c r="D293">
         <v>0.92578125</v>
-      </c>
-      <c r="D293">
-        <v>0.23974609375</v>
       </c>
       <c r="E293">
         <v>-0.1171875</v>
@@ -9759,10 +9759,10 @@
         <v>-2.44140625E-3</v>
       </c>
       <c r="C294">
+        <v>0.236083984375</v>
+      </c>
+      <c r="D294">
         <v>0.934326171875</v>
-      </c>
-      <c r="D294">
-        <v>0.236083984375</v>
       </c>
       <c r="E294">
         <v>2.2734375</v>
@@ -9791,10 +9791,10 @@
         <v>6.4208984375E-2</v>
       </c>
       <c r="C295">
+        <v>0.24169921875</v>
+      </c>
+      <c r="D295">
         <v>0.93310546875</v>
-      </c>
-      <c r="D295">
-        <v>0.24169921875</v>
       </c>
       <c r="E295">
         <v>1.2265625</v>
@@ -9823,10 +9823,10 @@
         <v>6.396484375E-2</v>
       </c>
       <c r="C296">
+        <v>0.31494140625</v>
+      </c>
+      <c r="D296">
         <v>0.9296875</v>
-      </c>
-      <c r="D296">
-        <v>0.31494140625</v>
       </c>
       <c r="E296">
         <v>2.328125</v>
@@ -9855,10 +9855,10 @@
         <v>-4.638671875E-3</v>
       </c>
       <c r="C297">
+        <v>0.32177734375</v>
+      </c>
+      <c r="D297">
         <v>0.935302734375</v>
-      </c>
-      <c r="D297">
-        <v>0.32177734375</v>
       </c>
       <c r="E297">
         <v>-0.359375</v>
@@ -9887,10 +9887,10 @@
         <v>6.34765625E-2</v>
       </c>
       <c r="C298">
+        <v>0.31689453125</v>
+      </c>
+      <c r="D298">
         <v>1.000244140625</v>
-      </c>
-      <c r="D298">
-        <v>0.31689453125</v>
       </c>
       <c r="E298">
         <v>0.3515625</v>
@@ -9919,10 +9919,10 @@
         <v>-3.173828125E-3</v>
       </c>
       <c r="C299">
+        <v>0.24853515625</v>
+      </c>
+      <c r="D299">
         <v>0.9248046875</v>
-      </c>
-      <c r="D299">
-        <v>0.24853515625</v>
       </c>
       <c r="E299">
         <v>-2.203125</v>
@@ -9951,10 +9951,10 @@
         <v>-5.615234375E-3</v>
       </c>
       <c r="C300">
+        <v>0.325927734375</v>
+      </c>
+      <c r="D300">
         <v>0.923095703125</v>
-      </c>
-      <c r="D300">
-        <v>0.325927734375</v>
       </c>
       <c r="E300">
         <v>-0.6015625</v>
